--- a/data/hotels_by_city/Denver/Denver_shard_168.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_168.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="693">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33388-d530656-Reviews-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-The-Inn-At-Cherry-Creek.h1169361.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2039 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r597069054-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>33388</t>
+  </si>
+  <si>
+    <t>530656</t>
+  </si>
+  <si>
+    <t>597069054</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Long term visitors very disappointed</t>
+  </si>
+  <si>
+    <t>We have stayed here many times over the years, mainly due to its location and, for a long time, its special feel.  Lately it has slipped badly.  The rooms have always been comfortable but lately there are stains on the carpet and an absence of the nice amenities we liked in the old days.  Corridor carpets are greasy looking outside room doors, the garage trash can is overflowing and so forth.  The one staff member in evidence is pleasant but the restaurant by the lobby has closed except for breakfast.  Room rates remain high and they charge an extremely high $35 per night for a pet, although parking is only $10.  On balance, it has lost its appeal to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We have stayed here many times over the years, mainly due to its location and, for a long time, its special feel.  Lately it has slipped badly.  The rooms have always been comfortable but lately there are stains on the carpet and an absence of the nice amenities we liked in the old days.  Corridor carpets are greasy looking outside room doors, the garage trash can is overflowing and so forth.  The one staff member in evidence is pleasant but the restaurant by the lobby has closed except for breakfast.  Room rates remain high and they charge an extremely high $35 per night for a pet, although parking is only $10.  On balance, it has lost its appeal to us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r586297857-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>586297857</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So sad. </t>
+  </si>
+  <si>
+    <t>My son goes to college in Denver, and for the past four years, it has been my go-to hotel. It’s never been luxurious, but I loved the neighborhood and thought that it was a good value for the money. No more. I have seen both the neighborhood and the hotel change for the worse, and I honestly cannot recommend either any more. The hotel felt new and fairly clean when I started coming here in 2014. This is no longer true. I don’t think that the owner has upgraded anything in the last four years, and everything is starting to feel tired and dirty. The hallway carpets are particularly disgusting. Ans the owner recently closed the on-site restaurant at night, which makes the lobby feel both dated and vacant. This hotel is sold out every weekend. And there is absolutely no excuse for this neglect. I feel like they are taking their loyal customers for granted. As for the neighborhood, in the past four years, it has gone from a cute, human scale, walkable neighborhood to a suburban looking place populated huge concrete monstrosities. The best streets in Cherry Creek have been completely decimated by overdevelopment and the lack of zoning controls. In a few years, it will look like Colorado Boulevard. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My son goes to college in Denver, and for the past four years, it has been my go-to hotel. It’s never been luxurious, but I loved the neighborhood and thought that it was a good value for the money. No more. I have seen both the neighborhood and the hotel change for the worse, and I honestly cannot recommend either any more. The hotel felt new and fairly clean when I started coming here in 2014. This is no longer true. I don’t think that the owner has upgraded anything in the last four years, and everything is starting to feel tired and dirty. The hallway carpets are particularly disgusting. Ans the owner recently closed the on-site restaurant at night, which makes the lobby feel both dated and vacant. This hotel is sold out every weekend. And there is absolutely no excuse for this neglect. I feel like they are taking their loyal customers for granted. As for the neighborhood, in the past four years, it has gone from a cute, human scale, walkable neighborhood to a suburban looking place populated huge concrete monstrosities. The best streets in Cherry Creek have been completely decimated by overdevelopment and the lack of zoning controls. In a few years, it will look like Colorado Boulevard. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r582516277-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>582516277</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Location location!</t>
+  </si>
+  <si>
+    <t>I liked this small hotel and really enjoyed my room on the 4th floor with awesome balcony. My room had 1 queen. The room was very small and it was suitable for me traveling by myself.  In the warm weather with the use of the deck it makes the room feel bigger. Yes, it does need remodeling especially with its excellent location and competitors. But that is not a reason to avoid it. Especially if you get a deal.The location and the balcony added a star for me. No breakfast included.  Few amenities. I could not find even pen and paper! Some hall noise but I did not notice street noise. I have a big vehicle. Do not pull into their parking garage with a big vehicle. There will probably not be any on street parking so plan ahead, call the hotel for alternate parking directions. There are some spaces behind the hotel. I have a Suburban. The garage is not meant for Suburbans. And once you are in you are committed. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I liked this small hotel and really enjoyed my room on the 4th floor with awesome balcony. My room had 1 queen. The room was very small and it was suitable for me traveling by myself.  In the warm weather with the use of the deck it makes the room feel bigger. Yes, it does need remodeling especially with its excellent location and competitors. But that is not a reason to avoid it. Especially if you get a deal.The location and the balcony added a star for me. No breakfast included.  Few amenities. I could not find even pen and paper! Some hall noise but I did not notice street noise. I have a big vehicle. Do not pull into their parking garage with a big vehicle. There will probably not be any on street parking so plan ahead, call the hotel for alternate parking directions. There are some spaces behind the hotel. I have a Suburban. The garage is not meant for Suburbans. And once you are in you are committed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r564030789-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>564030789</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Boutique hotel in concept</t>
+  </si>
+  <si>
+    <t>Two night stay. Not exactly our idea of a boutique hotel - small, yes, which was good, quiet, also good, friendly staff though we opened a Pandora's Box our first morning at breakfast when we requested black tea without added flavours, such as vanilla and cinnamon, that are the wont of tea merchants like Celestial Seasonings. The same applies to coffee. From then on we endured an on-going lecture from the waiter about flavours and additives in food. It got rather old. Inn's breakfast a good choice. Disappointed that the restaurant only open for breakfast. Inn location handy. Overnight parking good though it takes two - one to park and one to direct for fear of colliding with pillars. Plenty of restaurants, though our observation was that menus did not vary greatly from one restaurant to the other. One issue, in the interest of conserving water, why no plugs for the wash basins? My husband had to run a constant stream of hot water while shaving. Having said all this, now that we know its quirks, yes, we would stay again and recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Two night stay. Not exactly our idea of a boutique hotel - small, yes, which was good, quiet, also good, friendly staff though we opened a Pandora's Box our first morning at breakfast when we requested black tea without added flavours, such as vanilla and cinnamon, that are the wont of tea merchants like Celestial Seasonings. The same applies to coffee. From then on we endured an on-going lecture from the waiter about flavours and additives in food. It got rather old. Inn's breakfast a good choice. Disappointed that the restaurant only open for breakfast. Inn location handy. Overnight parking good though it takes two - one to park and one to direct for fear of colliding with pillars. Plenty of restaurants, though our observation was that menus did not vary greatly from one restaurant to the other. One issue, in the interest of conserving water, why no plugs for the wash basins? My husband had to run a constant stream of hot water while shaving. Having said all this, now that we know its quirks, yes, we would stay again and recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r550204887-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>550204887</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>Great boutique hotel</t>
+  </si>
+  <si>
+    <t>We were only in Denver for one night visiting family and this was a great place to stay and a great price given it's prime location.  It felt like a boutique hotel; nice rooms, small and comfortable lobby and very friendly staff.   It is not a place if you are looking for the amenities like pool, bar, etc. There is a small restaurant, but we did not visit it.   We will definitely return!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>ResOffice, Front Office Manager at Inn at Cherry Creek, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>We were only in Denver for one night visiting family and this was a great place to stay and a great price given it's prime location.  It felt like a boutique hotel; nice rooms, small and comfortable lobby and very friendly staff.   It is not a place if you are looking for the amenities like pool, bar, etc. There is a small restaurant, but we did not visit it.   We will definitely return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r547015311-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>547015311</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Great Location/Great Stay</t>
+  </si>
+  <si>
+    <t>Great place for a weekend getaway. Hotel is located in the middle of Cherry Creek with great shopping and food all around. Everything is walk-able. The hotel is nice and the employee's are awesome. Richard at the front desk was super friendly and made our stay awesome. Nice to feel like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place for a weekend getaway. Hotel is located in the middle of Cherry Creek with great shopping and food all around. Everything is walk-able. The hotel is nice and the employee's are awesome. Richard at the front desk was super friendly and made our stay awesome. Nice to feel like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r532931545-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>532931545</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>An excellent boutique hotel</t>
+  </si>
+  <si>
+    <t>We recently spent three very comfortable nights here. This is a small, quiet hotel with a restaurant that provides an extensive breakfast menu. An added plus is the hip neighborhood of restaurants, bars and shopping within easy walking distance. We’ll be back.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r524138824-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>524138824</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Needs a major reno</t>
+  </si>
+  <si>
+    <t>I will not stay here again; and I come to Denver twice a month. They didn't have the balcony room I reserved. The carpet in the halls in about two years past due to be replaced. It's terrible. The tile in my room looked dirty, at best stained. The room was as clean as they could get it, it is just run down. I didn't have one hanger in my room (and there were two places to hang clothes). The wine list is lousy. I do not understand the good reviews here. The place needs a major renovation. Could be cute.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>ResOffice, Front Office Manager at Inn at Cherry Creek, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>I will not stay here again; and I come to Denver twice a month. They didn't have the balcony room I reserved. The carpet in the halls in about two years past due to be replaced. It's terrible. The tile in my room looked dirty, at best stained. The room was as clean as they could get it, it is just run down. I didn't have one hanger in my room (and there were two places to hang clothes). The wine list is lousy. I do not understand the good reviews here. The place needs a major renovation. Could be cute.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r512292226-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>512292226</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Rundown Dud</t>
+  </si>
+  <si>
+    <t>As Cherry creek North residents, we have used the Inn at Cherry Creek as our guest room numerous times. Last week when our son, daughter-in-law, and 6-year-old twins arrived to stay in the Executive Suite, which they have done before, I got to the Inn early to greet them. It was about 95 degrees outside. The small lobby is run-down, shabby, has the feel of a college dorm, and the fire place was going full blast--the lobby was like a furnace. No one was at the front desk. The phone started ringing and a man came out from the restaurant to do something. I asked if someone would answer the phone. He said, No. They'll just pick up the voice mails later. The phone rang and went unanswered several more times. No one arrived at the front desk for another five minutes. And when she did arrive she had an attitude.
+I helped my family get their bags upstairs--the carpets are stained--and the Executive Suite looked nothing like it used to or in the photo. It looked as though it had been ransacked, stripped bare. My son later said a number of things were broken, including the locks on the terrace doors--not a good situation with adventuresome 6-year-olds. He also told me that he had been asked for a credit card when he checked in because there was no card on file. This was incorrect--I had made sure the charges...As Cherry creek North residents, we have used the Inn at Cherry Creek as our guest room numerous times. Last week when our son, daughter-in-law, and 6-year-old twins arrived to stay in the Executive Suite, which they have done before, I got to the Inn early to greet them. It was about 95 degrees outside. The small lobby is run-down, shabby, has the feel of a college dorm, and the fire place was going full blast--the lobby was like a furnace. No one was at the front desk. The phone started ringing and a man came out from the restaurant to do something. I asked if someone would answer the phone. He said, No. They'll just pick up the voice mails later. The phone rang and went unanswered several more times. No one arrived at the front desk for another five minutes. And when she did arrive she had an attitude.I helped my family get their bags upstairs--the carpets are stained--and the Executive Suite looked nothing like it used to or in the photo. It looked as though it had been ransacked, stripped bare. My son later said a number of things were broken, including the locks on the terrace doors--not a good situation with adventuresome 6-year-olds. He also told me that he had been asked for a credit card when he checked in because there was no card on file. This was incorrect--I had made sure the charges were put on my card, something the manager Lauren later confirmed. The last straw was when I tried to call the front desk to confirm that his charges would be put on my card, I got voice mail three times and each time the voice said, "This mail box is full!"Half a dozen new upscale hotels are coming on line or have just opened in Cherry Creek--all wonderful, first-class options. The Inn at Cherry Creek will not be able to compete unless it cleans itself up and hires more, better-trained, professional, on-site, on-duty staff. The property is out-dated, dirty, and smells bad. The cost for two nights in the Executive Suite was $1,200. I could have put them at the JW up the street for that price, and it is a beautiful, beautifully managed property.I would not recommend this property to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>As Cherry creek North residents, we have used the Inn at Cherry Creek as our guest room numerous times. Last week when our son, daughter-in-law, and 6-year-old twins arrived to stay in the Executive Suite, which they have done before, I got to the Inn early to greet them. It was about 95 degrees outside. The small lobby is run-down, shabby, has the feel of a college dorm, and the fire place was going full blast--the lobby was like a furnace. No one was at the front desk. The phone started ringing and a man came out from the restaurant to do something. I asked if someone would answer the phone. He said, No. They'll just pick up the voice mails later. The phone rang and went unanswered several more times. No one arrived at the front desk for another five minutes. And when she did arrive she had an attitude.
+I helped my family get their bags upstairs--the carpets are stained--and the Executive Suite looked nothing like it used to or in the photo. It looked as though it had been ransacked, stripped bare. My son later said a number of things were broken, including the locks on the terrace doors--not a good situation with adventuresome 6-year-olds. He also told me that he had been asked for a credit card when he checked in because there was no card on file. This was incorrect--I had made sure the charges...As Cherry creek North residents, we have used the Inn at Cherry Creek as our guest room numerous times. Last week when our son, daughter-in-law, and 6-year-old twins arrived to stay in the Executive Suite, which they have done before, I got to the Inn early to greet them. It was about 95 degrees outside. The small lobby is run-down, shabby, has the feel of a college dorm, and the fire place was going full blast--the lobby was like a furnace. No one was at the front desk. The phone started ringing and a man came out from the restaurant to do something. I asked if someone would answer the phone. He said, No. They'll just pick up the voice mails later. The phone rang and went unanswered several more times. No one arrived at the front desk for another five minutes. And when she did arrive she had an attitude.I helped my family get their bags upstairs--the carpets are stained--and the Executive Suite looked nothing like it used to or in the photo. It looked as though it had been ransacked, stripped bare. My son later said a number of things were broken, including the locks on the terrace doors--not a good situation with adventuresome 6-year-olds. He also told me that he had been asked for a credit card when he checked in because there was no card on file. This was incorrect--I had made sure the charges were put on my card, something the manager Lauren later confirmed. The last straw was when I tried to call the front desk to confirm that his charges would be put on my card, I got voice mail three times and each time the voice said, "This mail box is full!"Half a dozen new upscale hotels are coming on line or have just opened in Cherry Creek--all wonderful, first-class options. The Inn at Cherry Creek will not be able to compete unless it cleans itself up and hires more, better-trained, professional, on-site, on-duty staff. The property is out-dated, dirty, and smells bad. The cost for two nights in the Executive Suite was $1,200. I could have put them at the JW up the street for that price, and it is a beautiful, beautifully managed property.I would not recommend this property to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r500391971-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>500391971</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Small inn with great restaurant. You will love staying with them.</t>
+  </si>
+  <si>
+    <t>The inn at Cherry Creek in in the Cherry creek shopping area with in walking distance of over 20 fine dining restaurants and walking distance of the cherry creek mall. Easy access to all of Denver. 10 minutes from downtown. The staff is small and will take care of all your needs. We went during the cherry creek arts festival and they had no problem getting us in for 5 days. I highly recommend trying this little gem out. You won't be sorry.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r495652241-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>495652241</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Delightful Gem!</t>
+  </si>
+  <si>
+    <t>What a great little property!  We were in Denver for business and the downtown area was sold out so we ventured out a little further than our Corporate office location.  I loved everything about this hotel.  The rooms were ideal for a business traveler or someone on a getaway. Bed was super comfortable!  I used room service 2x without any issue.  Food was delivered quickly and was hot.  Staff were very pleasant and knowledgeable.  You can't beat this area - walking distance to many boutiques and restaurants.  Would absolutely recommend and stay here again.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r494682158-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>494682158</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Hotel overbooked me (even though their website let me reserve a room!) and treated me poorly.</t>
+  </si>
+  <si>
+    <t>I booked a room on their website the night before my reservation.  On arrival I  find out they were overbooked.  They 'found' a room for me 15 miles south (Wingate by Wyndham in Greenwood Village) at what they said was a 'sister property'.  They indicated it'd get a great rate which I was responsible for.  Rate given was $159 and I find out rooms are $139.00 on the Wingate's own website!  I chose the Inn because had dinner plans in Cherry Creek and could walk to/from dinner.  Being 15 miles south required Uber/Lyft to and from dinner.  The manager at the Inn at Cherry Creek hasn't responded to my request for an explanation.  My original confirmation number was 339012900 which should confirm this is a legitimate complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room on their website the night before my reservation.  On arrival I  find out they were overbooked.  They 'found' a room for me 15 miles south (Wingate by Wyndham in Greenwood Village) at what they said was a 'sister property'.  They indicated it'd get a great rate which I was responsible for.  Rate given was $159 and I find out rooms are $139.00 on the Wingate's own website!  I chose the Inn because had dinner plans in Cherry Creek and could walk to/from dinner.  Being 15 miles south required Uber/Lyft to and from dinner.  The manager at the Inn at Cherry Creek hasn't responded to my request for an explanation.  My original confirmation number was 339012900 which should confirm this is a legitimate complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r488858635-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>488858635</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Quaint and Cozy Hotel!</t>
+  </si>
+  <si>
+    <t>Highly recommend this small boutique hotel if you are looking to stay in the Cherry Creek area. Both agents at the front desk were super friendly and engaging to our needs. Rooms are very cozy, with nice amenities (love the Keurigs). Within walking distance of tons of shops, restaurants and fun things to do. Although this time I was on business in that area, I do like to come here for just a getaway too. Look forward to coming back! Thanks for a wonderful stay.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r486026817-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>486026817</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Excellent lodging and great location</t>
+  </si>
+  <si>
+    <t>We have stayed here on multiple occasions. The location to shopping and great restaurants is excellent. Beds are comfortable and rooms clean. The staff for the most part has been very good except for acouple of not so friendly front desk staff. We've had a couple hiccups with the wifi and telephone service but good quality, polite staff have always done their best to try and fix the problems. Pricing is reasonable for the area and class of hotel. The in hotel dining is not very good but there are so many great food options within short walking distance that its not to much of a problem. We would stay there again and we would recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>We have stayed here on multiple occasions. The location to shopping and great restaurants is excellent. Beds are comfortable and rooms clean. The staff for the most part has been very good except for acouple of not so friendly front desk staff. We've had a couple hiccups with the wifi and telephone service but good quality, polite staff have always done their best to try and fix the problems. Pricing is reasonable for the area and class of hotel. The in hotel dining is not very good but there are so many great food options within short walking distance that its not to much of a problem. We would stay there again and we would recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r462679447-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>462679447</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Good place, but with limitations</t>
+  </si>
+  <si>
+    <t>I stayed at the Inn at Cherry Creek for two nights. The service was good, the room clean, and the bed comfortable. The hotel is located in a nice spot, with many great restaurants nearby, and a Pete's cafe around the block. The room is small, and with dated furniture. My big problem was with its small and poorly designed bathroom. The sink is at the left of the door of the room, cluttered with a basket of snacks, water bottle and coffee maker. I had to move all that to a drawer to use the sink space. The bathroom is at the right of the entry door. The shower has a glass panel that covers half of the shower space, and a cheap plastic curtain for the other half. The curtain is inefficient and inevitably a pool of water ends up outside the shower area. Also, there is no space to place the soap and shampoo in the shower. The soap, shampoo and towel are placed on the floor!. It would have been very simple to place a triangle small shelf on a corner. SO, the place is ok for a trip in a budget, but you may try to find another place if you expect some comforts.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I stayed at the Inn at Cherry Creek for two nights. The service was good, the room clean, and the bed comfortable. The hotel is located in a nice spot, with many great restaurants nearby, and a Pete's cafe around the block. The room is small, and with dated furniture. My big problem was with its small and poorly designed bathroom. The sink is at the left of the door of the room, cluttered with a basket of snacks, water bottle and coffee maker. I had to move all that to a drawer to use the sink space. The bathroom is at the right of the entry door. The shower has a glass panel that covers half of the shower space, and a cheap plastic curtain for the other half. The curtain is inefficient and inevitably a pool of water ends up outside the shower area. Also, there is no space to place the soap and shampoo in the shower. The soap, shampoo and towel are placed on the floor!. It would have been very simple to place a triangle small shelf on a corner. SO, the place is ok for a trip in a budget, but you may try to find another place if you expect some comforts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r444343375-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>444343375</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Small &amp; Cozy with Attentive Staff</t>
+  </si>
+  <si>
+    <t>Wanted to stay in the heart of the Cherry Creek district and this was the perfect choice.  The staff was friendly and attentive to our needs.  The rooms are cozy and overlook Clayton Street.  I much prefer smaller &amp; local than a large chain.  So the Inn was a perfect choice.  Parking available and dog friendly - all nice additional amenities.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r434631055-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>434631055</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>This is a fine hotel option if you can't find anything else in the area or if you are trying to save a little money. I found the staff to be just OK. I booked one of the better rooms here and enjoyed my stay more than my colleagues, who had the more typical rooms.The hotel restaurant had a surprisingly exceptional breakfast. I would eat there again!</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r430348315-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>430348315</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gem in Cherry Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This boutique hotel is located in the heart of the Cherry Creek district of Denver. Walkable neighborhood with shopping and dining. Fireplace in the lobby, restaurant/bar onsite. The beds are comfortable and the bathroom amenities are top notch. But best of all, you get all of this for the fraction of the price of surrounding hotels. Very friendly and efficient staff. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r413283977-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>413283977</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>great location, average hotel</t>
+  </si>
+  <si>
+    <t>this hotel reminded me of the small New Orleans hotels, not too many floors, packed into a small area. BUT this area of Denver is great, lots of shops and restaurants, doesn't have the big city feel (which was nice).</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r402256157-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>402256157</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>Great location and comfortable rooms</t>
+  </si>
+  <si>
+    <t>Love staying at The Inn at Cherry Creek. The Inn is a super cute boutique hotel,  clean and comfortable rooms, friendly staff and dog friendly. Highly recommend this hotel, lots shopping &amp; site seeing and close to downtown.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r399259154-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>399259154</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Great Boutique hotel in Cherry Creek</t>
+  </si>
+  <si>
+    <t>Enjoyed staying at the Inn at Cherry Creek for the first time - just for a night out.  Boutique feel hotel with first rate and friendly staff.  The hotel is in a fantastic location, the rooms are comfortable and everything from the floors to the bathrooms are kept very clean.  Our room had an amazing balcony with a full size table and chairs.  Food is very good and for room service very affordable.  We were there for their Beers and Blue Grass - a lot of fun and plan to go again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r386457729-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>386457729</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great little inn </t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek is a great find. Rooms are luxurious--great beds, pillows, vanity products, and shower. Located in a lovely, quiet, safe neighborhood with many dining and shopping options. Reasonably priced too. Highly recommended!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r379788783-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>379788783</t>
+  </si>
+  <si>
+    <t>06/04/2016</t>
+  </si>
+  <si>
+    <t>Wow, Could the experience get any worse?  Yes</t>
+  </si>
+  <si>
+    <t>I have stayed at the Inn at Cherry Creek many times over the years and have found the hotel to be in slow decline which is very disappointing.  Our trouble began at check in, one of the rooms we booked was supposed to have two beds.  We were told only rooms with king beds were available.  I was told that I did not book a room with two beds and essentially I was considered untruthful if I did not produce iron clad written evidence to back up my claim.  I booked three rooms three months in advance.  I still cannot believe how rudely I was treated. I was given the opportunity to pay significantly more for a suite with a sofa bed as the second bed.  After researching it on our computer we produced the evidence of booking a room with two beds, we were grudgingly given the suite with not extra charge.  The rooms are shabby -- stained carpet, outdated furniture, a slippery tub/shower combination.  Oh yes, the t.v. is tiny and not HD.  When we arrived back to our room it had not been cleaned.  I asked if our rate would be reduced and I was told no because we have a lower rate than is currently being charged.  The garage is also challenging to park in unless you drive a Smart Car.  We will never stay here again.  Three new boutique hotels and being built in Cherry...I have stayed at the Inn at Cherry Creek many times over the years and have found the hotel to be in slow decline which is very disappointing.  Our trouble began at check in, one of the rooms we booked was supposed to have two beds.  We were told only rooms with king beds were available.  I was told that I did not book a room with two beds and essentially I was considered untruthful if I did not produce iron clad written evidence to back up my claim.  I booked three rooms three months in advance.  I still cannot believe how rudely I was treated. I was given the opportunity to pay significantly more for a suite with a sofa bed as the second bed.  After researching it on our computer we produced the evidence of booking a room with two beds, we were grudgingly given the suite with not extra charge.  The rooms are shabby -- stained carpet, outdated furniture, a slippery tub/shower combination.  Oh yes, the t.v. is tiny and not HD.  When we arrived back to our room it had not been cleaned.  I asked if our rate would be reduced and I was told no because we have a lower rate than is currently being charged.  The garage is also challenging to park in unless you drive a Smart Car.  We will never stay here again.  Three new boutique hotels and being built in Cherry Creek, maybe some competition will cause the owners to wake up.  The attitude starts at the top.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>ResOffice, Executive Account Administrator at Inn at Cherry Creek, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at the Inn at Cherry Creek many times over the years and have found the hotel to be in slow decline which is very disappointing.  Our trouble began at check in, one of the rooms we booked was supposed to have two beds.  We were told only rooms with king beds were available.  I was told that I did not book a room with two beds and essentially I was considered untruthful if I did not produce iron clad written evidence to back up my claim.  I booked three rooms three months in advance.  I still cannot believe how rudely I was treated. I was given the opportunity to pay significantly more for a suite with a sofa bed as the second bed.  After researching it on our computer we produced the evidence of booking a room with two beds, we were grudgingly given the suite with not extra charge.  The rooms are shabby -- stained carpet, outdated furniture, a slippery tub/shower combination.  Oh yes, the t.v. is tiny and not HD.  When we arrived back to our room it had not been cleaned.  I asked if our rate would be reduced and I was told no because we have a lower rate than is currently being charged.  The garage is also challenging to park in unless you drive a Smart Car.  We will never stay here again.  Three new boutique hotels and being built in Cherry...I have stayed at the Inn at Cherry Creek many times over the years and have found the hotel to be in slow decline which is very disappointing.  Our trouble began at check in, one of the rooms we booked was supposed to have two beds.  We were told only rooms with king beds were available.  I was told that I did not book a room with two beds and essentially I was considered untruthful if I did not produce iron clad written evidence to back up my claim.  I booked three rooms three months in advance.  I still cannot believe how rudely I was treated. I was given the opportunity to pay significantly more for a suite with a sofa bed as the second bed.  After researching it on our computer we produced the evidence of booking a room with two beds, we were grudgingly given the suite with not extra charge.  The rooms are shabby -- stained carpet, outdated furniture, a slippery tub/shower combination.  Oh yes, the t.v. is tiny and not HD.  When we arrived back to our room it had not been cleaned.  I asked if our rate would be reduced and I was told no because we have a lower rate than is currently being charged.  The garage is also challenging to park in unless you drive a Smart Car.  We will never stay here again.  Three new boutique hotels and being built in Cherry Creek, maybe some competition will cause the owners to wake up.  The attitude starts at the top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r375777778-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>375777778</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Got Thread Count?</t>
+  </si>
+  <si>
+    <t>Very clean room! Wonderful front desk staff! So what's up with the linens? The sheets were a surprisingly threadbare and scratchy polyester/cotton blend. It was a real shock since the rest of the room was very nice. I expect crummy sheets from an interstate motel in the middle of nowhere, but not in Cherry Creek. Oh well. At least they were clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean room! Wonderful front desk staff! So what's up with the linens? The sheets were a surprisingly threadbare and scratchy polyester/cotton blend. It was a real shock since the rest of the room was very nice. I expect crummy sheets from an interstate motel in the middle of nowhere, but not in Cherry Creek. Oh well. At least they were clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r355859509-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>355859509</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Solid Business Hotel.  Not luxurious, but comfortable</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek was a good facility for our group to host a 2-day meeting at.  The rooms, while not luxurious by any means, were clean, beds were comfortable, and the catering (breakfast and lunch) was well above average.  There were some things that weren't quite ideal.  The wireless internet service was spotty and frequently down, which was challenging for our tech group.  Most folks had hoped to get some work done after meetings and found that difficult.  While the staff was extremely nice, I was a little bothered by some room service dishes that sat outside my room for more than 48 hours.  They were there when I arrived so could have been there longer.  I believe the hotel was upfront that their workout facility wasn't great, and ideally I like to have a little space and a treadmill available when I travel.  I would still recommend for business travel as there are many, many options that don't meet even comfort standards.  Again, staff was extremely nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>ResOffice, Executive Account Administrator at Inn at Cherry Creek, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek was a good facility for our group to host a 2-day meeting at.  The rooms, while not luxurious by any means, were clean, beds were comfortable, and the catering (breakfast and lunch) was well above average.  There were some things that weren't quite ideal.  The wireless internet service was spotty and frequently down, which was challenging for our tech group.  Most folks had hoped to get some work done after meetings and found that difficult.  While the staff was extremely nice, I was a little bothered by some room service dishes that sat outside my room for more than 48 hours.  They were there when I arrived so could have been there longer.  I believe the hotel was upfront that their workout facility wasn't great, and ideally I like to have a little space and a treadmill available when I travel.  I would still recommend for business travel as there are many, many options that don't meet even comfort standards.  Again, staff was extremely nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r341052234-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>341052234</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek is Amazing</t>
+  </si>
+  <si>
+    <t>My Aunt and Uncle stayed at the Inn at Cherry Creek. The Inn is very quaint and the staff is excellent. The rooms are very nice and the beds are comfortable. Great patio views as well. I give this place 5 stars all the way around!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>ResOffice, Sales and Catering Coordinator at Inn at Cherry Creek, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>My Aunt and Uncle stayed at the Inn at Cherry Creek. The Inn is very quaint and the staff is excellent. The rooms are very nice and the beds are comfortable. Great patio views as well. I give this place 5 stars all the way around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r340463558-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>340463558</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Friendly and Great Cherry Creek Locatioin</t>
+  </si>
+  <si>
+    <t>We have stayed multiple times at the Inn at Cherry Creek and have had a great experience. This hotel has self parking which is provides a homelike ease and independence. The staff are friendly and have let us check in early more than once which is huge. Right out the door you have access to wonderful restaurants and shopping. The hotel restaurant has really good food. If you are out of town for the holidays make a reservation ahead of time. The restaurant staff and owner are super nice and go out of the way to make you feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We have stayed multiple times at the Inn at Cherry Creek and have had a great experience. This hotel has self parking which is provides a homelike ease and independence. The staff are friendly and have let us check in early more than once which is huge. Right out the door you have access to wonderful restaurants and shopping. The hotel restaurant has really good food. If you are out of town for the holidays make a reservation ahead of time. The restaurant staff and owner are super nice and go out of the way to make you feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r328499603-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>328499603</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a wonderful hotel </t>
+  </si>
+  <si>
+    <t>I have stayed at this property various times over the years and it keeps getting better.  The staff knows me by name, the location is wonderful to downtown locations, restaurants in the area and shopping right by the hotel.I will keep coming back for sure!/MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded December 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at this property various times over the years and it keeps getting better.  The staff knows me by name, the location is wonderful to downtown locations, restaurants in the area and shopping right by the hotel.I will keep coming back for sure!/More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r324380219-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>324380219</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Not really a boutique hotel</t>
+  </si>
+  <si>
+    <t>It is definitely hard to find a charming boutique hotel in US, rooms where you wake up and not know where you are 'cause they are all the same...so my expectation for this Inn was high and , in a way, disappointing.The hallway carpet has seen better, and cleaner, days. The room it's average.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded November 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2015</t>
+  </si>
+  <si>
+    <t>It is definitely hard to find a charming boutique hotel in US, rooms where you wake up and not know where you are 'cause they are all the same...so my expectation for this Inn was high and , in a way, disappointing.The hallway carpet has seen better, and cleaner, days. The room it's average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r321727394-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>321727394</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>On a business trip</t>
+  </si>
+  <si>
+    <t>We were having a meeting in Denver and they chose this site.  Quaint hotel with 40+ rooms with a couple of meeting rooms on the second floor.  If there was a drawback while we were there it wasn't the fault of the hotel as there was some high rise construction going on nearby.  Good news was it was a good wake up call in the morning as they started early while we were there.  Rooms were very nice.  Small bar and restaurant that closes like 2-4 in afternoon.  We had lunches two days and 2 breakfasts at the hotel.  The lunches were in our meeting room and were very good.  One breakfast was off the menu in the restaurant and the other was in the room.  Good variety on menu in restaurant and all food was good.  Bar and patio are a little small but should hold about 15 in the patio and maybe 40+ in the bar/restaurant.  Staff was nice and very attentive.  We got to meet the owner.  He opened up the bar for us one afternoon.  Very close to many good restaurants and bars if you are going out.  And for those that want to shop small shops and the Cherry Creek Mall are not far away.  Give it a shot if you are looking for something different and unique, personally and for small business meetings.MoreShow less</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded October 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2015</t>
+  </si>
+  <si>
+    <t>We were having a meeting in Denver and they chose this site.  Quaint hotel with 40+ rooms with a couple of meeting rooms on the second floor.  If there was a drawback while we were there it wasn't the fault of the hotel as there was some high rise construction going on nearby.  Good news was it was a good wake up call in the morning as they started early while we were there.  Rooms were very nice.  Small bar and restaurant that closes like 2-4 in afternoon.  We had lunches two days and 2 breakfasts at the hotel.  The lunches were in our meeting room and were very good.  One breakfast was off the menu in the restaurant and the other was in the room.  Good variety on menu in restaurant and all food was good.  Bar and patio are a little small but should hold about 15 in the patio and maybe 40+ in the bar/restaurant.  Staff was nice and very attentive.  We got to meet the owner.  He opened up the bar for us one afternoon.  Very close to many good restaurants and bars if you are going out.  And for those that want to shop small shops and the Cherry Creek Mall are not far away.  Give it a shot if you are looking for something different and unique, personally and for small business meetings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r310557509-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>310557509</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>78/150 about right</t>
+  </si>
+  <si>
+    <t>Sometimes you just shake your head and wish something was better. This Inn got great location in heart Cherry creek but than... Good .. Webber restaurant was suprisnly excellent  the biscuits n gravy / lunch both excellent ... That would be only reason return. Bad ..property is tired it's ten years old and everything tattered around edges ..our deck was filthy and stained ,carpet was well ten years old . Room sizes vary a lot from tiny to small to holiday inn standard ..we had parlor suite that was two rooms but so small you could almost touch walls .tv was added later and all you saw was cables everywhereAgain biggest problem neglect by owner appears to be nice older gentleman in lobby .Folks knew him said great guy just very cheap it shows ..hire some maintance staff ,renovate this potential jewel.Hotel did nothing special for guests tho staff friendly I just felt sorry for them ..No pool ,or special am entiti es ,breakfast room converted to meeting room,was very small fitness room in garage .Rates were high very comparable to JW Marriott across street that we will stay at next time.Was bad no..was it good or noteworthy no.To bad maybe Kimpton or real hotel person buy it and it will be special ..but now just tired place with great location and decent restaurant.too bad   .78/150 about right.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Sometimes you just shake your head and wish something was better. This Inn got great location in heart Cherry creek but than... Good .. Webber restaurant was suprisnly excellent  the biscuits n gravy / lunch both excellent ... That would be only reason return. Bad ..property is tired it's ten years old and everything tattered around edges ..our deck was filthy and stained ,carpet was well ten years old . Room sizes vary a lot from tiny to small to holiday inn standard ..we had parlor suite that was two rooms but so small you could almost touch walls .tv was added later and all you saw was cables everywhereAgain biggest problem neglect by owner appears to be nice older gentleman in lobby .Folks knew him said great guy just very cheap it shows ..hire some maintance staff ,renovate this potential jewel.Hotel did nothing special for guests tho staff friendly I just felt sorry for them ..No pool ,or special am entiti es ,breakfast room converted to meeting room,was very small fitness room in garage .Rates were high very comparable to JW Marriott across street that we will stay at next time.Was bad no..was it good or noteworthy no.To bad maybe Kimpton or real hotel person buy it and it will be special ..but now just tired place with great location and decent restaurant.too bad   .78/150 about right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r290774655-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>290774655</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Special touches made for an enjoyable business trip stay</t>
+  </si>
+  <si>
+    <t>After a long day of travel and work - staying here was a delight. The room was tastefully decorated, bed was super comfy, tea selection in the room was unlike any I've ever seen and the free treats (cookies!) were delicious.  I had to depart during a snowstorm (at the tail end of one) and the desk staff recommended car service to the airport rather than a taxi. Given the weather, I took her up on the suggestion. It cost about the same and in the weather, he was a great driver.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded July 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2015</t>
+  </si>
+  <si>
+    <t>After a long day of travel and work - staying here was a delight. The room was tastefully decorated, bed was super comfy, tea selection in the room was unlike any I've ever seen and the free treats (cookies!) were delicious.  I had to depart during a snowstorm (at the tail end of one) and the desk staff recommended car service to the airport rather than a taxi. Given the weather, I took her up on the suggestion. It cost about the same and in the weather, he was a great driver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r289270788-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>289270788</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Huge disappointment</t>
+  </si>
+  <si>
+    <t>We had high hopes for this inn, and were very disappointed. The room we were given was tiny, and had only one chair. The bed took up most of the room. The mini-fridge froze all our food; one of the towels was dirty; the ceiling leaked; and the "free Wi-Fi" didn't work unless we went to the lobby.  When we mentioned these problems to the manager, he gave us (I'm not making this up) two watery "free" cocktails from the adjoining bar. When we asked for a reduction in the rate, he told us he couldn't give us one, because we'd booked through Expedia. Nonsense! They certainly could have just given us a check.Bottom line: don't stay at The Inn at Cherry Creek.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>ResOffice, Manager at Inn at Cherry Creek, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>We had high hopes for this inn, and were very disappointed. The room we were given was tiny, and had only one chair. The bed took up most of the room. The mini-fridge froze all our food; one of the towels was dirty; the ceiling leaked; and the "free Wi-Fi" didn't work unless we went to the lobby.  When we mentioned these problems to the manager, he gave us (I'm not making this up) two watery "free" cocktails from the adjoining bar. When we asked for a reduction in the rate, he told us he couldn't give us one, because we'd booked through Expedia. Nonsense! They certainly could have just given us a check.Bottom line: don't stay at The Inn at Cherry Creek.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r287739453-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>287739453</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Very disappointing and so much potential</t>
+  </si>
+  <si>
+    <t>Perfect location if you want to be close to all Cherry Creek has to offer, i.e., restaurants, boutiques and Cherry Creek Mall, oversight and supervision is not present and hotel needs lots of $$$'s infused to bring it up to par with the neighborhood. Our visit for 4 nights was fraught with missteps from the get go. One bar of soap for both the sink and shower, no bath mat, a dispensor for 6 cups of Kuerig coffee but they only give out two at a time. We checked inTues and our room was not made up on Wed or Thurs, even though I stopped at the desk Thurs am to remind them, no excuse for that. They also gave us a room facing the construction, very unpleasant view, we asked to be moved and got a room with a lovely tree in front. Why we weren't given that room to begin with??? Walls were scraped and need painting, door latch stuck, small TV and other sign this place needs a tune up. Desk staff David &amp; Chris couldn't have been nicer and tried hard to be accommodating but that only takes you so far. Not what I would have expected from Cherry Creek.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Perfect location if you want to be close to all Cherry Creek has to offer, i.e., restaurants, boutiques and Cherry Creek Mall, oversight and supervision is not present and hotel needs lots of $$$'s infused to bring it up to par with the neighborhood. Our visit for 4 nights was fraught with missteps from the get go. One bar of soap for both the sink and shower, no bath mat, a dispensor for 6 cups of Kuerig coffee but they only give out two at a time. We checked inTues and our room was not made up on Wed or Thurs, even though I stopped at the desk Thurs am to remind them, no excuse for that. They also gave us a room facing the construction, very unpleasant view, we asked to be moved and got a room with a lovely tree in front. Why we weren't given that room to begin with??? Walls were scraped and need painting, door latch stuck, small TV and other sign this place needs a tune up. Desk staff David &amp; Chris couldn't have been nicer and tried hard to be accommodating but that only takes you so far. Not what I would have expected from Cherry Creek.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r271173318-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>271173318</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Good location, terrible rooms, small, noisy and dungeony feeling</t>
+  </si>
+  <si>
+    <t>Stayed here versus the JW Marriott which is 1 block away because it appeared to be a boutique hotel. We should have spent the extra $70 and stayed at the Marriott. The hotel lobby is dark and stuffy. Our room was disgusting, soooo small, old raggedy brown carpet, MAJOR construction next door, we were next to the office for the construction crew so we had to close the curtains the whole time. No lightbulb in the lamp, toilet kept running. I did complain and they moved us to another room which was bigger but overall the same depressing feel. Sheets were old and itchy..nasty</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r263563657-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>263563657</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Run down hotel with LOUD construction</t>
+  </si>
+  <si>
+    <t>WARNING: There is MAJOR construction going on behind this hotel. It started at 7 AM on Friday AND Saturday. Woke us up both days, of course. On Friday morning, I asked the (rude) young front desk attendant about the noise. He said: “They are not supposed to start that early. And they don’t work on Saturday.” Blatant lies, as we discovered on Saturday morning at 7 AM. Besides the construction noise, this is a poorly operated, dingy, run down facility. The towels and bedding are of the poorest quality. There are many better options in Cherry Creek.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r257978076-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>257978076</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Loud, loud, loud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If listening to a bunch of construction workers wailing away at concrete and yelling at each other at 6 am is your idea of a relaxing stay, by all means, come hereThe tiny parking garage is unusable for anything bigger than a razer scooter and when asked for alternatives none were suggested. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r256276624-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>256276624</t>
+  </si>
+  <si>
+    <t>02/24/2015</t>
+  </si>
+  <si>
+    <t>Quirky and convenient</t>
+  </si>
+  <si>
+    <t>The Inn was nice. Staff was mostly pleasant. Not at all a corporate place, but the shower was good and the room, fine if a bit small. The restaurant was decent. But beware the underground parking garage. The turns are VERY tight...and judging by the scrapes on the wall...people hit the sides often. It is great they have a lot, but be careful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r243499893-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>243499893</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Thank you for your honesty!!!</t>
+  </si>
+  <si>
+    <t>My husband and I received a gift certificate to stay at the Inn at Cherry Creek. The location is perfect...walking distance from all the great restaurants and shopping. The Inn is upscale, quaint and quiet. The room service (from Weber Grill) was very good and prompt. Additionally, I accidentally left my wedding ring behind. I called the hotel about an hour later to see if they could look for it in the room. They found it and held onto it for me. I am beyond gracious for their honesty!!!! I will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r237156451-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>237156451</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Excellent, quiet and comfortable stay</t>
+  </si>
+  <si>
+    <t>I had the privilege of staying here one night and it was very well worth it. To start, there is complementary parking; for those not familiar with Cherry Creek, having a place to park that's covered and not have to pay is a huge plus!!! The parking garage was a little intimidating, but nothing to scoff at; it was clean, well lit, and safe. The staff was beyond amazing. Mikolos was my waiter in the restaurant and he was very patient, knowledgeable, professional, and warm. Lauren and Stephen at the front desk were so gracious, kind, professional, prompt and warm. I really felt like a valued guest. The room was clean and very quiet and the bed were ahhhh-mazing! I slept great! It was the perfect night away!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I had the privilege of staying here one night and it was very well worth it. To start, there is complementary parking; for those not familiar with Cherry Creek, having a place to park that's covered and not have to pay is a huge plus!!! The parking garage was a little intimidating, but nothing to scoff at; it was clean, well lit, and safe. The staff was beyond amazing. Mikolos was my waiter in the restaurant and he was very patient, knowledgeable, professional, and warm. Lauren and Stephen at the front desk were so gracious, kind, professional, prompt and warm. I really felt like a valued guest. The room was clean and very quiet and the bed were ahhhh-mazing! I slept great! It was the perfect night away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r237011270-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>237011270</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Very disappointing</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek was probably a very nice boutique hotel a few years ago, but it has not kept up with the times. The furnishings show their age and any "style" is absent. For the price of the room, I'd recommend going to the JW Marriott, if you want style, or the Hampton Inn or Hyatt Place if you want value.  All are nearby.
+I started my stay in a "Deluxe" room that had a king bed with a mattress that was much too soft for my liking.  It sagged and provided little support.
+I was also disappointed by the size of the flat screen television which was much too small for the room.  
+The biggest problem, however, was the construction outside my window.  (I've posted a picture of the view from my room.) There are two large buildings under construction and I believe that the work began about 5am on Monday morning. By 6 am, I had called the front desk and asked if I could be moved for my second night.  The overnight clerk asked that I call back when the day manager arrived, at 8am.  
+He was happy to change my room for the second night. The second room was considerably smaller (as I had been told when I asked to move) and with twin or queen beds rather than a king. But I was able to sleep to a more reasonable time without the...The Inn at Cherry Creek was probably a very nice boutique hotel a few years ago, but it has not kept up with the times. The furnishings show their age and any "style" is absent. For the price of the room, I'd recommend going to the JW Marriott, if you want style, or the Hampton Inn or Hyatt Place if you want value.  All are nearby.I started my stay in a "Deluxe" room that had a king bed with a mattress that was much too soft for my liking.  It sagged and provided little support.I was also disappointed by the size of the flat screen television which was much too small for the room.  The biggest problem, however, was the construction outside my window.  (I've posted a picture of the view from my room.) There are two large buildings under construction and I believe that the work began about 5am on Monday morning. By 6 am, I had called the front desk and asked if I could be moved for my second night.  The overnight clerk asked that I call back when the day manager arrived, at 8am.  He was happy to change my room for the second night. The second room was considerably smaller (as I had been told when I asked to move) and with twin or queen beds rather than a king. But I was able to sleep to a more reasonable time without the construction noise.  However, after showering, I was not able to find a hair dryer in this room. (There had been one in the first room.) A little thing, but it was a nuisance that should not happen at an "Inn" like this.As others have noted, the underground parking garage is very small and tight and difficult to drive in.  I was impressed, however, by the Maserati which was parked in it.It was hard to find the hotel upon my arrival from the airport. It is not well marked and I actually drove past it the first time around. The second time, I noticed the hotel's name on the parking garage sign and found that I was there.The staff was quite friendly, nice, and helpful, but that did not make up for the soft bed, the construction disruption, and the missing hair dryer.All in all, the Inn at Cherry Creek was a disappointment. If I want to be in Cherry Creek, I'll try someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek was probably a very nice boutique hotel a few years ago, but it has not kept up with the times. The furnishings show their age and any "style" is absent. For the price of the room, I'd recommend going to the JW Marriott, if you want style, or the Hampton Inn or Hyatt Place if you want value.  All are nearby.
+I started my stay in a "Deluxe" room that had a king bed with a mattress that was much too soft for my liking.  It sagged and provided little support.
+I was also disappointed by the size of the flat screen television which was much too small for the room.  
+The biggest problem, however, was the construction outside my window.  (I've posted a picture of the view from my room.) There are two large buildings under construction and I believe that the work began about 5am on Monday morning. By 6 am, I had called the front desk and asked if I could be moved for my second night.  The overnight clerk asked that I call back when the day manager arrived, at 8am.  
+He was happy to change my room for the second night. The second room was considerably smaller (as I had been told when I asked to move) and with twin or queen beds rather than a king. But I was able to sleep to a more reasonable time without the...The Inn at Cherry Creek was probably a very nice boutique hotel a few years ago, but it has not kept up with the times. The furnishings show their age and any "style" is absent. For the price of the room, I'd recommend going to the JW Marriott, if you want style, or the Hampton Inn or Hyatt Place if you want value.  All are nearby.I started my stay in a "Deluxe" room that had a king bed with a mattress that was much too soft for my liking.  It sagged and provided little support.I was also disappointed by the size of the flat screen television which was much too small for the room.  The biggest problem, however, was the construction outside my window.  (I've posted a picture of the view from my room.) There are two large buildings under construction and I believe that the work began about 5am on Monday morning. By 6 am, I had called the front desk and asked if I could be moved for my second night.  The overnight clerk asked that I call back when the day manager arrived, at 8am.  He was happy to change my room for the second night. The second room was considerably smaller (as I had been told when I asked to move) and with twin or queen beds rather than a king. But I was able to sleep to a more reasonable time without the construction noise.  However, after showering, I was not able to find a hair dryer in this room. (There had been one in the first room.) A little thing, but it was a nuisance that should not happen at an "Inn" like this.As others have noted, the underground parking garage is very small and tight and difficult to drive in.  I was impressed, however, by the Maserati which was parked in it.It was hard to find the hotel upon my arrival from the airport. It is not well marked and I actually drove past it the first time around. The second time, I noticed the hotel's name on the parking garage sign and found that I was there.The staff was quite friendly, nice, and helpful, but that did not make up for the soft bed, the construction disruption, and the missing hair dryer.All in all, the Inn at Cherry Creek was a disappointment. If I want to be in Cherry Creek, I'll try someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r236425319-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>236425319</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>A great location but a mediocre hotel</t>
+  </si>
+  <si>
+    <t>Upon arrival the underground parking I discovered was extremely tight at best while parking I witnessed several accidents where cars hit the wall of the parking structure or parking support poles. In fact I spent 10 minutes directly a young lady out of the structure so she would not damage her car. When I checked in and told the female at the desk the parking situation she said "Oh I've hit those parking poles several times". I then said why did your staff not advice of the parking situation and she responded "I didn't take your reservation".  So unless you drive a subcompact vehicle don't park in their underground parking.
+When we entered the room the tile in the entry was not only chipped but faded and most likely should have been replaced a while ago. Also the paint on the molding was chipped with wood exposed. And the carpet was dirty. From the looks of it this hotel at one time was a very nice boutique hotel but deferred maintenance and lack of training of staff I would rate this hotel a 1 1/2 star establishment. 
+Upon checking out the gentlemen at the desk ask how are stay was and we said "Terrible we wouldn't stay here again" When we ask for a receipt he said "It has a zero balance you don't need a receipt" I responded with "I don't care if it has a zero balance or...Upon arrival the underground parking I discovered was extremely tight at best while parking I witnessed several accidents where cars hit the wall of the parking structure or parking support poles. In fact I spent 10 minutes directly a young lady out of the structure so she would not damage her car. When I checked in and told the female at the desk the parking situation she said "Oh I've hit those parking poles several times". I then said why did your staff not advice of the parking situation and she responded "I didn't take your reservation".  So unless you drive a subcompact vehicle don't park in their underground parking.When we entered the room the tile in the entry was not only chipped but faded and most likely should have been replaced a while ago. Also the paint on the molding was chipped with wood exposed. And the carpet was dirty. From the looks of it this hotel at one time was a very nice boutique hotel but deferred maintenance and lack of training of staff I would rate this hotel a 1 1/2 star establishment. Upon checking out the gentlemen at the desk ask how are stay was and we said "Terrible we wouldn't stay here again" When we ask for a receipt he said "It has a zero balance you don't need a receipt" I responded with "I don't care if it has a zero balance or not I still want a receipt" he finally printed a receipt.MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arrival the underground parking I discovered was extremely tight at best while parking I witnessed several accidents where cars hit the wall of the parking structure or parking support poles. In fact I spent 10 minutes directly a young lady out of the structure so she would not damage her car. When I checked in and told the female at the desk the parking situation she said "Oh I've hit those parking poles several times". I then said why did your staff not advice of the parking situation and she responded "I didn't take your reservation".  So unless you drive a subcompact vehicle don't park in their underground parking.
+When we entered the room the tile in the entry was not only chipped but faded and most likely should have been replaced a while ago. Also the paint on the molding was chipped with wood exposed. And the carpet was dirty. From the looks of it this hotel at one time was a very nice boutique hotel but deferred maintenance and lack of training of staff I would rate this hotel a 1 1/2 star establishment. 
+Upon checking out the gentlemen at the desk ask how are stay was and we said "Terrible we wouldn't stay here again" When we ask for a receipt he said "It has a zero balance you don't need a receipt" I responded with "I don't care if it has a zero balance or...Upon arrival the underground parking I discovered was extremely tight at best while parking I witnessed several accidents where cars hit the wall of the parking structure or parking support poles. In fact I spent 10 minutes directly a young lady out of the structure so she would not damage her car. When I checked in and told the female at the desk the parking situation she said "Oh I've hit those parking poles several times". I then said why did your staff not advice of the parking situation and she responded "I didn't take your reservation".  So unless you drive a subcompact vehicle don't park in their underground parking.When we entered the room the tile in the entry was not only chipped but faded and most likely should have been replaced a while ago. Also the paint on the molding was chipped with wood exposed. And the carpet was dirty. From the looks of it this hotel at one time was a very nice boutique hotel but deferred maintenance and lack of training of staff I would rate this hotel a 1 1/2 star establishment. Upon checking out the gentlemen at the desk ask how are stay was and we said "Terrible we wouldn't stay here again" When we ask for a receipt he said "It has a zero balance you don't need a receipt" I responded with "I don't care if it has a zero balance or not I still want a receipt" he finally printed a receipt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r229639364-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>229639364</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Nice Location &amp; Staff, Shame about the room</t>
+  </si>
+  <si>
+    <t>After driving pass this hotel twice, as my driver couldn't find it (lack of signage) I was meet by a welcoming &amp; friendly member of staff. She was helpful with local restaurant information and other things to do in the area.
+This was the high point to the whole stay.
+I had booked a Deluxe Room with breakfast - which was cost wise comparable to the rate I pay at the JW Marriott just down the road.
+The room looked and felt dated and could do with a major refurnish
+The bed was big enough for my size (6ft,8") but again could do with a refresh using 1 mattress and not 2 pushed together. 
+The bathroom was split into 2 parts - First Part was the sink &amp; mirror which you enter once you get thru the door to your room.
+The second part was to the side which held the bath/shower unit &amp; toilet - Again refresh urgently needed.
+On opening the curtains I found that I was over looked by 2 building sites along with local businesses - The windows aren't one way so anyone working can look into your room.
+Getting woken up at 06:30 isn't my idea of fun and just put the cherry on the whole experience. I couldn't wait to check out and get to my next location.
+I wouldn't be staying again at this location and the only reason I used it was...After driving pass this hotel twice, as my driver couldn't find it (lack of signage) I was meet by a welcoming &amp; friendly member of staff. She was helpful with local restaurant information and other things to do in the area.This was the high point to the whole stay.I had booked a Deluxe Room with breakfast - which was cost wise comparable to the rate I pay at the JW Marriott just down the road.The room looked and felt dated and could do with a major refurnishThe bed was big enough for my size (6ft,8") but again could do with a refresh using 1 mattress and not 2 pushed together. The bathroom was split into 2 parts - First Part was the sink &amp; mirror which you enter once you get thru the door to your room.The second part was to the side which held the bath/shower unit &amp; toilet - Again refresh urgently needed.On opening the curtains I found that I was over looked by 2 building sites along with local businesses - The windows aren't one way so anyone working can look into your room.Getting woken up at 06:30 isn't my idea of fun and just put the cherry on the whole experience. I couldn't wait to check out and get to my next location.I wouldn't be staying again at this location and the only reason I used it was due to the golf event had booked the whole of the JW Marriott for that week.MoreShow less</t>
+  </si>
+  <si>
+    <t>After driving pass this hotel twice, as my driver couldn't find it (lack of signage) I was meet by a welcoming &amp; friendly member of staff. She was helpful with local restaurant information and other things to do in the area.
+This was the high point to the whole stay.
+I had booked a Deluxe Room with breakfast - which was cost wise comparable to the rate I pay at the JW Marriott just down the road.
+The room looked and felt dated and could do with a major refurnish
+The bed was big enough for my size (6ft,8") but again could do with a refresh using 1 mattress and not 2 pushed together. 
+The bathroom was split into 2 parts - First Part was the sink &amp; mirror which you enter once you get thru the door to your room.
+The second part was to the side which held the bath/shower unit &amp; toilet - Again refresh urgently needed.
+On opening the curtains I found that I was over looked by 2 building sites along with local businesses - The windows aren't one way so anyone working can look into your room.
+Getting woken up at 06:30 isn't my idea of fun and just put the cherry on the whole experience. I couldn't wait to check out and get to my next location.
+I wouldn't be staying again at this location and the only reason I used it was...After driving pass this hotel twice, as my driver couldn't find it (lack of signage) I was meet by a welcoming &amp; friendly member of staff. She was helpful with local restaurant information and other things to do in the area.This was the high point to the whole stay.I had booked a Deluxe Room with breakfast - which was cost wise comparable to the rate I pay at the JW Marriott just down the road.The room looked and felt dated and could do with a major refurnishThe bed was big enough for my size (6ft,8") but again could do with a refresh using 1 mattress and not 2 pushed together. The bathroom was split into 2 parts - First Part was the sink &amp; mirror which you enter once you get thru the door to your room.The second part was to the side which held the bath/shower unit &amp; toilet - Again refresh urgently needed.On opening the curtains I found that I was over looked by 2 building sites along with local businesses - The windows aren't one way so anyone working can look into your room.Getting woken up at 06:30 isn't my idea of fun and just put the cherry on the whole experience. I couldn't wait to check out and get to my next location.I wouldn't be staying again at this location and the only reason I used it was due to the golf event had booked the whole of the JW Marriott for that week.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r227819184-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>227819184</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent location but hotel needs updated rooms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location location location but room fell short with stained carpet in multiple areas, terrible pillows and bed sagged in the middle. Could not open drapes in the morning because an office worker in the building next door was at his computer&amp; could see in. Not worth the room rate we paid. Very disappointed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r227590861-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>227590861</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>Customer service at its best!</t>
+  </si>
+  <si>
+    <t>We were here for a wedding and were impressed by the attentive staff. Everyone was friendly and happy be to serve us at the wedding. Francisco is quite the character such a gem to have at such an amazing place! Thank you for a wonderful time:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r220376095-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>220376095</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Pampered feel of a bed and breakfast but...</t>
+  </si>
+  <si>
+    <t>This was my third stay at the Inn at Cherry Creek and I found the rooms still in very good condition, with a feel of spaciousness and well appointed. We had to ask to have a coffee machine brought to our room, but it was there within minutes...although if we had wanted a mini fridge there was a rental fee. Ice machine is on the 2nd floor. There is construction going on in the area, which was audible in the morning, but I use a travel sound machine, so it was not too disruptive. We were traveling in a small rental car, so the garage was not too difficult. We opted for the breakfast package and had a delightful meal at the Weber Grill, located at street level in the same building...our sidewalk seating was very pleasant until a shredder truck pulled up and drowned out all attempts at conversation. Still, I think this is a nice alternative to the big corporate hotels, and the staff is very friendly and helpful. The Cherry Creek location is a big draw with the botanical gardens nearby, lots of restaurants and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>This was my third stay at the Inn at Cherry Creek and I found the rooms still in very good condition, with a feel of spaciousness and well appointed. We had to ask to have a coffee machine brought to our room, but it was there within minutes...although if we had wanted a mini fridge there was a rental fee. Ice machine is on the 2nd floor. There is construction going on in the area, which was audible in the morning, but I use a travel sound machine, so it was not too disruptive. We were traveling in a small rental car, so the garage was not too difficult. We opted for the breakfast package and had a delightful meal at the Weber Grill, located at street level in the same building...our sidewalk seating was very pleasant until a shredder truck pulled up and drowned out all attempts at conversation. Still, I think this is a nice alternative to the big corporate hotels, and the staff is very friendly and helpful. The Cherry Creek location is a big draw with the botanical gardens nearby, lots of restaurants and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r218433509-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>218433509</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Second chance</t>
+  </si>
+  <si>
+    <t>This is my second attempt to enjoy this hotel...sorry, Inn.My travel partner had a good experience here, so I booked 2 nights again for that reason. The construction is still going on 50 feet from the rooms and the rooms are still overpriced for the decor it "offers".  Don't let the fireplace option influence you.....it's a joke.I wandered into a one bedroom suite being cleaned and was more impressed.....at least with the "presentation/layout. Asked to be moved, room was unavailable.Btw-desk person ....very nice.I asked for a second night refund and booked another hotel for my stay. (see my review of The new Crawford hotel at union station)Even my lady friend agreed........BTW-a plus is you can bring a dog.  Perhaps that's why some of the carpeting/furniture is soiled, as other reviews have mentioned.I STRONGLY suggest you ask about room location and construction noise.I won't be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This is my second attempt to enjoy this hotel...sorry, Inn.My travel partner had a good experience here, so I booked 2 nights again for that reason. The construction is still going on 50 feet from the rooms and the rooms are still overpriced for the decor it "offers".  Don't let the fireplace option influence you.....it's a joke.I wandered into a one bedroom suite being cleaned and was more impressed.....at least with the "presentation/layout. Asked to be moved, room was unavailable.Btw-desk person ....very nice.I asked for a second night refund and booked another hotel for my stay. (see my review of The new Crawford hotel at union station)Even my lady friend agreed........BTW-a plus is you can bring a dog.  Perhaps that's why some of the carpeting/furniture is soiled, as other reviews have mentioned.I STRONGLY suggest you ask about room location and construction noise.I won't be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r214848278-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>214848278</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Wonderful location in busy Cherry Creek</t>
+  </si>
+  <si>
+    <t>I come to Cherry Creek for business twice a month and have stayed at many of the hotels in the general area. The Inn at Cherry Creek is my first choice for a place to stay in the area.I've stayed at this hotel a number of times as I come to the Cherry Creek area of Denver. The location is hard to beat for business, shopping or for a run along the Cherry Creek path. You can walk easily just about anywhere in Cherry Creek from the hotel, and it is just a short drive or cab ride ($12) to downtown. The restaurants in the area are diverse and very good, and all with walking distance. The rooms are nice and spacious, many with large decks and Cherry Creek is a great place to be outside. On my most recent stay, the bed in my room was not as comfortable as I remember from previous visits, but it was not uncomfortable either. The bathrooms are nicely appointed but a bit small. As stated by previous reviewer(s), the underground parking garage is tight and you do get charged a $10 fee for parking a car overnight, but that's a far cry from the $32-36 charged for a car at a downtown hotel. The hotel restaurant is good, breakfast is great and not too expensive. The staff is attentive, helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I come to Cherry Creek for business twice a month and have stayed at many of the hotels in the general area. The Inn at Cherry Creek is my first choice for a place to stay in the area.I've stayed at this hotel a number of times as I come to the Cherry Creek area of Denver. The location is hard to beat for business, shopping or for a run along the Cherry Creek path. You can walk easily just about anywhere in Cherry Creek from the hotel, and it is just a short drive or cab ride ($12) to downtown. The restaurants in the area are diverse and very good, and all with walking distance. The rooms are nice and spacious, many with large decks and Cherry Creek is a great place to be outside. On my most recent stay, the bed in my room was not as comfortable as I remember from previous visits, but it was not uncomfortable either. The bathrooms are nicely appointed but a bit small. As stated by previous reviewer(s), the underground parking garage is tight and you do get charged a $10 fee for parking a car overnight, but that's a far cry from the $32-36 charged for a car at a downtown hotel. The hotel restaurant is good, breakfast is great and not too expensive. The staff is attentive, helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r207140606-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>207140606</t>
+  </si>
+  <si>
+    <t>05/26/2014</t>
+  </si>
+  <si>
+    <t>Great Location and Staff.</t>
+  </si>
+  <si>
+    <t>Stayed for 3 days for a friend's wedding and could not have been happier with the location -- great shops, restaurants, galleries. The rooms were clean, nice and comfy. The restaurant serves a great (inexpensive) breakfast and the service was perfect.  Actually, the entire staff was fantastic. Great experience.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r204881146-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>204881146</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>I should have checked Trip Advisor first!</t>
+  </si>
+  <si>
+    <t>I wanted to like this Inn, I really did. The location is great, with a Whole Foods just around the corner, but the inn is terribly overpriced for the condition of the room. I don't mind a small room, even for $200/night, if the experience truly is "boutique," and the rooms are spotless and well-appointed. This was not the case at Inn at Cherry Creek. While the linens were crisp and clean, the carpet was soiled, the lounge chair was spotted and soiled (see accompanying picture), the wardrobe was dinged and chipped, and there was a hole between the doors leading to the teeny balcony, allowing cold wind to whistle in. Worst of all, it is right next door to a giant construction site, so you are subjected to not only noise associated with building a giant condo complex, there are workers all over the site that can see into your room.The front desk staff was very nice, but it doesn't make up for the room's deficiency.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wanted to like this Inn, I really did. The location is great, with a Whole Foods just around the corner, but the inn is terribly overpriced for the condition of the room. I don't mind a small room, even for $200/night, if the experience truly is "boutique," and the rooms are spotless and well-appointed. This was not the case at Inn at Cherry Creek. While the linens were crisp and clean, the carpet was soiled, the lounge chair was spotted and soiled (see accompanying picture), the wardrobe was dinged and chipped, and there was a hole between the doors leading to the teeny balcony, allowing cold wind to whistle in. Worst of all, it is right next door to a giant construction site, so you are subjected to not only noise associated with building a giant condo complex, there are workers all over the site that can see into your room.The front desk staff was very nice, but it doesn't make up for the room's deficiency.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r203629041-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>203629041</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Save your money- Go elsewhere</t>
+  </si>
+  <si>
+    <t>In upscale Cherry Creek North, given the cost of a room here, and the expectations from the website, we had every reason to think this was a good hotel.  It wasn't.  The room was exceedingly small for 2 people, plus there was only 1 robe and few towels.  Picture a bed, one small sitting chair, a desk chair, and a few drawers: that was all the furniture that could fit.  Noise was a problem: The construction site right under our window had workers arrive at 6:00 a.m.; that night there was a loud outdoor bar across the parking lot with partiers till 2 am; and worst of all there was a large barking dog on the same floor. All this with thin walls and no noise blocking drapes. Worst of all there was zero hot water in the morning. I called to the front desk and the answer was- "oh, let me go turn on the switch!"   But by that time I had given up on a shower.  We did get a small discount upon checking out, but by that time, we couldn't wait to find another hotel- one with space to turnaround in the room, no dogs, hot water, and no construction!   Save your money- go elsewhere is my advice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>In upscale Cherry Creek North, given the cost of a room here, and the expectations from the website, we had every reason to think this was a good hotel.  It wasn't.  The room was exceedingly small for 2 people, plus there was only 1 robe and few towels.  Picture a bed, one small sitting chair, a desk chair, and a few drawers: that was all the furniture that could fit.  Noise was a problem: The construction site right under our window had workers arrive at 6:00 a.m.; that night there was a loud outdoor bar across the parking lot with partiers till 2 am; and worst of all there was a large barking dog on the same floor. All this with thin walls and no noise blocking drapes. Worst of all there was zero hot water in the morning. I called to the front desk and the answer was- "oh, let me go turn on the switch!"   But by that time I had given up on a shower.  We did get a small discount upon checking out, but by that time, we couldn't wait to find another hotel- one with space to turnaround in the room, no dogs, hot water, and no construction!   Save your money- go elsewhere is my advice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r194650853-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>194650853</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>There are better hotel options in Denver. It's worth looking around.</t>
+  </si>
+  <si>
+    <t>I will start with the positive attributes to this property.+ sleep number bed. Very comfortable.+ good neighborhood location+ floors 3 and 4 have balconiesBut there are many more issues that concerned me about this property.- unprotected WiFi network- no information binder in room to let you know anything about property ammenities or surrounding neighborhood. (i simply got tired of having to call the front desk for everything.)- minibar had no pricing list (is it all free?)- tv did not work in my room-showers are odd and cramped- bathroom water line kept running all night. (had to shut off toilet to quiet the noise)- rooms are small and cramped- no artwork or any type of decorative additions to room (very bland)-very expensive for quality offered I honestly did not enjoy my stay. And at this price point, these are issues that should be addressed! It just seemed to lack that professional quality of hospitality service, like they were making it up on the go simply because Cherry Creek is a high price-point neighborhood.  I've honestly had more reliability and comfort at a corporaorate  motel chain that charges 1/ 3 the price here in Denver.Sorry, but despite the cozy sleep number bed, I would recommend staying elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will start with the positive attributes to this property.+ sleep number bed. Very comfortable.+ good neighborhood location+ floors 3 and 4 have balconiesBut there are many more issues that concerned me about this property.- unprotected WiFi network- no information binder in room to let you know anything about property ammenities or surrounding neighborhood. (i simply got tired of having to call the front desk for everything.)- minibar had no pricing list (is it all free?)- tv did not work in my room-showers are odd and cramped- bathroom water line kept running all night. (had to shut off toilet to quiet the noise)- rooms are small and cramped- no artwork or any type of decorative additions to room (very bland)-very expensive for quality offered I honestly did not enjoy my stay. And at this price point, these are issues that should be addressed! It just seemed to lack that professional quality of hospitality service, like they were making it up on the go simply because Cherry Creek is a high price-point neighborhood.  I've honestly had more reliability and comfort at a corporaorate  motel chain that charges 1/ 3 the price here in Denver.Sorry, but despite the cozy sleep number bed, I would recommend staying elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r190728462-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>190728462</t>
+  </si>
+  <si>
+    <t>01/13/2014</t>
+  </si>
+  <si>
+    <t>Terrible parking garage</t>
+  </si>
+  <si>
+    <t>My company uses this hotel to hold larger meetings and I wish they wouldn't. It's a small property that doesn't look like a hotel from the street, so you may drive past it a couple times at first.  The parking garage is terrible! Another reviewer stated it's made for Mini Coopers and he's right. Every time we have a meeting here, several people end up with scrapes and dings on their vehicle due to the impossibly tight corners. This is worsened when many meeting attendees are arriving at one time.I can't review the guest rooms or staff, but go elsewhere if you drive anything bigger than a compact car.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r189812753-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>189812753</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Good but not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location if you enjoy shopping. Cherry creek mall just half a block away. Price was very good too. Very friendly staff that tended to our every need. Bathroom floors could be upgraded as well as floor carpets which seem a little old. Enjoyed our stay and would recommend to friends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r178355927-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>178355927</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>3 Day Stay</t>
+  </si>
+  <si>
+    <t>My wife &amp; I stayed at the Inn at Cherry Creek in Denver for a three day stay -- a business trip. Great location -- not too far from downtown, the Cherry Creek shopping area &amp; the creek for walking/running. Excellent service in the hotel &amp; attached restaurant (breakfast each day). Other nice restaurants &amp; bars within walking distance.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r177532632-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>177532632</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>No wake up call at 3:30 A.M</t>
+  </si>
+  <si>
+    <t>The room is clean but small.  The bed was terrible, lumpy and had no support. The location is right in Cherry Creek and very convenient.  We requested a box of tissues which took 1 hour and 2 calls to receive.We put in a wake up call for 3:30 AM for a 6:20 plane.  We reminded the desk several times including right before we went to bed.  Fortunately, I woke up at 3:35.  When I called and told them, they said "oops, sorry."  I think that is unacceptable and speaks volumes about the property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r176194894-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>176194894</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Motel 6 at Ritz Prices</t>
+  </si>
+  <si>
+    <t>This was probably the worst experience with an alleged relatively expensive 'boutique' hotel ever. We were sucked in by some of the comments left by previous critics plus the location was close to where we wanted to be. We were in for a surprise. Starting with the garage - I was lucky to make it in and out of there without an accident. It was made for Mini Coopers, everyone else, park outside somewhere or you risk vehicle damage. The staff seemed uninterested in us, both the evening person and the early morning attendant. Too busy on the computer I guess. The hallways and room were just plain dirty. I could not believe that the hall rugs were in that condition - gross! The bathroom tile was so old, the glaze had worn off! The furniture was nicked and scratched. The TV was non-HD and gave us very poor reception. We were so concerned about the obvious lack of cleanliness and care, we didn't even make coffee the next morning in the room. Were the cups clean? We didn't want to take the chance. The sheets were paper thin and were long overdue for replacement. There was not even a soap dish in the shower area. There was a lack of electrical outlets to recharge our gear I had to unplug a light fixture. When I tried to call in for a morning wake-up, the phones did not work nor...This was probably the worst experience with an alleged relatively expensive 'boutique' hotel ever. We were sucked in by some of the comments left by previous critics plus the location was close to where we wanted to be. We were in for a surprise. Starting with the garage - I was lucky to make it in and out of there without an accident. It was made for Mini Coopers, everyone else, park outside somewhere or you risk vehicle damage. The staff seemed uninterested in us, both the evening person and the early morning attendant. Too busy on the computer I guess. The hallways and room were just plain dirty. I could not believe that the hall rugs were in that condition - gross! The bathroom tile was so old, the glaze had worn off! The furniture was nicked and scratched. The TV was non-HD and gave us very poor reception. We were so concerned about the obvious lack of cleanliness and care, we didn't even make coffee the next morning in the room. Were the cups clean? We didn't want to take the chance. The sheets were paper thin and were long overdue for replacement. There was not even a soap dish in the shower area. There was a lack of electrical outlets to recharge our gear I had to unplug a light fixture. When I tried to call in for a morning wake-up, the phones did not work nor did the front desk answer when I buzzed there. I even tried to call out on my cell to the front desk to get the staff and no one answered. As I was going to have a medical procedure the following morning, we asked for a late checkout but were, in my opinion, rudely rejected - No you must be out by 11 AM, no late checkout for you! - sort of like the response the Soup Nazi from the Seinfeld TV show would give you. I have never experienced a staff like that who did not understand that they were in the hospitality business. We left as soon as possible the next morning and checked in the the JW Marriot down the street which by the way in fantastic and about the same price. In retrospect, we should have not accepted our room initially but were tired from travel and just wanted to rest - big mistake. Sadly, while well located, the Inn at Cherry Creek should be avoided - the whole place is shabby; in great need of staff training; clean sheets; a phone system that works, etc, etc. I could rant on some more but I doubt the staff we met would care very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was probably the worst experience with an alleged relatively expensive 'boutique' hotel ever. We were sucked in by some of the comments left by previous critics plus the location was close to where we wanted to be. We were in for a surprise. Starting with the garage - I was lucky to make it in and out of there without an accident. It was made for Mini Coopers, everyone else, park outside somewhere or you risk vehicle damage. The staff seemed uninterested in us, both the evening person and the early morning attendant. Too busy on the computer I guess. The hallways and room were just plain dirty. I could not believe that the hall rugs were in that condition - gross! The bathroom tile was so old, the glaze had worn off! The furniture was nicked and scratched. The TV was non-HD and gave us very poor reception. We were so concerned about the obvious lack of cleanliness and care, we didn't even make coffee the next morning in the room. Were the cups clean? We didn't want to take the chance. The sheets were paper thin and were long overdue for replacement. There was not even a soap dish in the shower area. There was a lack of electrical outlets to recharge our gear I had to unplug a light fixture. When I tried to call in for a morning wake-up, the phones did not work nor...This was probably the worst experience with an alleged relatively expensive 'boutique' hotel ever. We were sucked in by some of the comments left by previous critics plus the location was close to where we wanted to be. We were in for a surprise. Starting with the garage - I was lucky to make it in and out of there without an accident. It was made for Mini Coopers, everyone else, park outside somewhere or you risk vehicle damage. The staff seemed uninterested in us, both the evening person and the early morning attendant. Too busy on the computer I guess. The hallways and room were just plain dirty. I could not believe that the hall rugs were in that condition - gross! The bathroom tile was so old, the glaze had worn off! The furniture was nicked and scratched. The TV was non-HD and gave us very poor reception. We were so concerned about the obvious lack of cleanliness and care, we didn't even make coffee the next morning in the room. Were the cups clean? We didn't want to take the chance. The sheets were paper thin and were long overdue for replacement. There was not even a soap dish in the shower area. There was a lack of electrical outlets to recharge our gear I had to unplug a light fixture. When I tried to call in for a morning wake-up, the phones did not work nor did the front desk answer when I buzzed there. I even tried to call out on my cell to the front desk to get the staff and no one answered. As I was going to have a medical procedure the following morning, we asked for a late checkout but were, in my opinion, rudely rejected - No you must be out by 11 AM, no late checkout for you! - sort of like the response the Soup Nazi from the Seinfeld TV show would give you. I have never experienced a staff like that who did not understand that they were in the hospitality business. We left as soon as possible the next morning and checked in the the JW Marriot down the street which by the way in fantastic and about the same price. In retrospect, we should have not accepted our room initially but were tired from travel and just wanted to rest - big mistake. Sadly, while well located, the Inn at Cherry Creek should be avoided - the whole place is shabby; in great need of staff training; clean sheets; a phone system that works, etc, etc. I could rant on some more but I doubt the staff we met would care very much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r166739450-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>166739450</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent location</t>
+  </si>
+  <si>
+    <t>This is a nice boutique hotel in an excellent location.  Parking is located beneath the hotel and at a cost of $10 per day, is reasonably priced.  Also, there is no charge for internet service.  Rooms are small, but nicely appointed.The hotel is walking distance from a multitude of shops and restaurants.  I don't believe there is a bell service or concierge, and it seemed that other than maids, the hotel is primarily staffed solely by a front desk person; however, this was not problematic for us.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r164956463-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>164956463</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Location, Location, Location +Great Dog Spot</t>
+  </si>
+  <si>
+    <t>We used to live near Cherry Creek and knew this would be a great area for staying with our two dogs.  Clayton Street is GREAT for walking dogs and taking 'dog breaks'.  Cherry Creek in general (as with all of Colorado) is wonderfully dog friendly, as was this hotel.  
+We stayed here twice on our trip.  First time in room 406, which was great because between the bedroom and hallway door there was an extra set of doors we could close to help buffer the hallway sounds (which helped our dogs stay calm).  The room is on the north side of the hotel on the top floor (which is also good for less sound issues) - with views of downtown Denver, the Mountains, and the setting sun.  Lovely.  Second time in room 409.  Room was good because it was right by the stairs and the headboard is on an exterior wall, but it had a weird entry shared with another room - not good for taking the dogs in and out or smelling um...bathroom smells....from the room next door (but good if you were there with friends or children and wanted 'adjoining' rooms).
+This hotel is great because you can bring your dogs, it is small, you can park for only $10/day, and you can take your dogs up and down stairs that are outside - so less issues of running into people in the elevator or your dogs being...We used to live near Cherry Creek and knew this would be a great area for staying with our two dogs.  Clayton Street is GREAT for walking dogs and taking 'dog breaks'.  Cherry Creek in general (as with all of Colorado) is wonderfully dog friendly, as was this hotel.  We stayed here twice on our trip.  First time in room 406, which was great because between the bedroom and hallway door there was an extra set of doors we could close to help buffer the hallway sounds (which helped our dogs stay calm).  The room is on the north side of the hotel on the top floor (which is also good for less sound issues) - with views of downtown Denver, the Mountains, and the setting sun.  Lovely.  Second time in room 409.  Room was good because it was right by the stairs and the headboard is on an exterior wall, but it had a weird entry shared with another room - not good for taking the dogs in and out or smelling um...bathroom smells....from the room next door (but good if you were there with friends or children and wanted 'adjoining' rooms).This hotel is great because you can bring your dogs, it is small, you can park for only $10/day, and you can take your dogs up and down stairs that are outside - so less issues of running into people in the elevator or your dogs being nervous in the elevator.  Location is superb for dining options, walking options (human and dog), etc.Though the hotel was quiet on both visits, without dogs I would not be so quick to stay here.  We thought it was a bit pricey for the quality.  The bed in 409 felt like we were at Grandma's house - sink hole, lumpy comforter, etc.  I did not sleep well and my back was very sore the next day.  This is no Kimpton bed.  The bed in 406 wasn't that great either.  Rooms in general need updating.  Furniture seems second-hand or something, kind of worn.  Bathrooms seem like they need a refresh as do the rooms in general - it all just felt a bit tired.  With a refresh, this hotel could really be something special.I would return with my dogs for sure, I would consider staying again without dogs just because of the small size of the hotel and the location.  I did not need much customer service, but the customer service I did receive was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We used to live near Cherry Creek and knew this would be a great area for staying with our two dogs.  Clayton Street is GREAT for walking dogs and taking 'dog breaks'.  Cherry Creek in general (as with all of Colorado) is wonderfully dog friendly, as was this hotel.  
+We stayed here twice on our trip.  First time in room 406, which was great because between the bedroom and hallway door there was an extra set of doors we could close to help buffer the hallway sounds (which helped our dogs stay calm).  The room is on the north side of the hotel on the top floor (which is also good for less sound issues) - with views of downtown Denver, the Mountains, and the setting sun.  Lovely.  Second time in room 409.  Room was good because it was right by the stairs and the headboard is on an exterior wall, but it had a weird entry shared with another room - not good for taking the dogs in and out or smelling um...bathroom smells....from the room next door (but good if you were there with friends or children and wanted 'adjoining' rooms).
+This hotel is great because you can bring your dogs, it is small, you can park for only $10/day, and you can take your dogs up and down stairs that are outside - so less issues of running into people in the elevator or your dogs being...We used to live near Cherry Creek and knew this would be a great area for staying with our two dogs.  Clayton Street is GREAT for walking dogs and taking 'dog breaks'.  Cherry Creek in general (as with all of Colorado) is wonderfully dog friendly, as was this hotel.  We stayed here twice on our trip.  First time in room 406, which was great because between the bedroom and hallway door there was an extra set of doors we could close to help buffer the hallway sounds (which helped our dogs stay calm).  The room is on the north side of the hotel on the top floor (which is also good for less sound issues) - with views of downtown Denver, the Mountains, and the setting sun.  Lovely.  Second time in room 409.  Room was good because it was right by the stairs and the headboard is on an exterior wall, but it had a weird entry shared with another room - not good for taking the dogs in and out or smelling um...bathroom smells....from the room next door (but good if you were there with friends or children and wanted 'adjoining' rooms).This hotel is great because you can bring your dogs, it is small, you can park for only $10/day, and you can take your dogs up and down stairs that are outside - so less issues of running into people in the elevator or your dogs being nervous in the elevator.  Location is superb for dining options, walking options (human and dog), etc.Though the hotel was quiet on both visits, without dogs I would not be so quick to stay here.  We thought it was a bit pricey for the quality.  The bed in 409 felt like we were at Grandma's house - sink hole, lumpy comforter, etc.  I did not sleep well and my back was very sore the next day.  This is no Kimpton bed.  The bed in 406 wasn't that great either.  Rooms in general need updating.  Furniture seems second-hand or something, kind of worn.  Bathrooms seem like they need a refresh as do the rooms in general - it all just felt a bit tired.  With a refresh, this hotel could really be something special.I would return with my dogs for sure, I would consider staying again without dogs just because of the small size of the hotel and the location.  I did not need much customer service, but the customer service I did receive was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r164212104-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>164212104</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>Heart of Cherry Creek Neighborhood</t>
+  </si>
+  <si>
+    <t>Stayed here one night on business and enjoyed it very much.  This property is a small boutique hotel located in the heart of the Cherry Creek walking area with lots of unique local restaurants, art galleries and retailers surrounding the property.  The room was very clean, nicely appointed with high end finishes and wonderful beds/linens and down pillows.  I did wake up in the middle of night to noise from another room so I agree with other reviewers that the walls may be a little thin.  Took a taxi from DIA that cost $70 inbound and $80 out bound - geez, where is the train that was promised a decade ago? Sorry, that comment has nothing to do with this property, but it makes it easier to put up with tight underground parking as I should have rented a car- it would have been cheaper!  Will stay here again - albeit on an expense account.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here one night on business and enjoyed it very much.  This property is a small boutique hotel located in the heart of the Cherry Creek walking area with lots of unique local restaurants, art galleries and retailers surrounding the property.  The room was very clean, nicely appointed with high end finishes and wonderful beds/linens and down pillows.  I did wake up in the middle of night to noise from another room so I agree with other reviewers that the walls may be a little thin.  Took a taxi from DIA that cost $70 inbound and $80 out bound - geez, where is the train that was promised a decade ago? Sorry, that comment has nothing to do with this property, but it makes it easier to put up with tight underground parking as I should have rented a car- it would have been cheaper!  Will stay here again - albeit on an expense account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r155803134-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>155803134</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Modern boutique hotel in the best location</t>
+  </si>
+  <si>
+    <t>Wow, I am so glad my fiancé found this place!  We like visiting the Cherry Creek North area and he surprised me with special activities over an October weekend culminating into a delightful stay at this boutique hotel.
+The entrance is rather humble and unassuming, even with the clear sign hanging over the sidewalk.  I noted that it is centrally located to all that Cherry Creek North has to offer.  Even the Mall is only 2 blocks away.  We knew we were in great hands when Whitney warmly welcomed us and checked us in.  She was a great example of the rest of the staff as everyone was just so nice, professional, and easy to talk to.  We needed a cab and she arranged for one that picked us up at the promised time.  These folks are very well trained in hospitality and customer service!
+The lobby itself is super cute and comfortable.  A small fireplace sat in one corner by the entrance, while refreshing cucumber water was offered on an end table.  On the other side of the front door was the entrance to the attached restaurant.  The slow elevators behind the front desk took us to the rooms and/or the parking garage, which is available for use for hotel and/or restaurant customers at $10/night.  
+We were upgraded to a King Terrace which came with a sweet patio looking over the area.  The patio had outdoor table, chairs, and...Wow, I am so glad my fiancé found this place!  We like visiting the Cherry Creek North area and he surprised me with special activities over an October weekend culminating into a delightful stay at this boutique hotel.The entrance is rather humble and unassuming, even with the clear sign hanging over the sidewalk.  I noted that it is centrally located to all that Cherry Creek North has to offer.  Even the Mall is only 2 blocks away.  We knew we were in great hands when Whitney warmly welcomed us and checked us in.  She was a great example of the rest of the staff as everyone was just so nice, professional, and easy to talk to.  We needed a cab and she arranged for one that picked us up at the promised time.  These folks are very well trained in hospitality and customer service!The lobby itself is super cute and comfortable.  A small fireplace sat in one corner by the entrance, while refreshing cucumber water was offered on an end table.  On the other side of the front door was the entrance to the attached restaurant.  The slow elevators behind the front desk took us to the rooms and/or the parking garage, which is available for use for hotel and/or restaurant customers at $10/night.  We were upgraded to a King Terrace which came with a sweet patio looking over the area.  The patio had outdoor table, chairs, and umbrella.  As a corner room with large bright windows on both walls, I can imagine this would be a premium place to be during the Arts Festival.  The room itself was lovely, fresh, and modern yet comfortable at the same time with plenty of space to move about. Two delicious cookies, Two Leaves &amp; A Bud tea, and quality toiletries awaited us on the granite countertop, while bright white linens on the luxurious bed anchored the high-ceilinged room.  Water pressure was excellent in the shower, though the curtains aren't quite long enough in the shower so there was quite a bit of splashing.  No tub, but I didn't even notice its absence.  Tons of drawer space to store clothing, and a small flatscreen TV faced the bed from a desk.  WiFi was available with the code.Either there was no one else staying at the hotel, or the rooms were soundproofed - we didn't hear anything from our corner room, even from outside.  In the hallway we could hear the thumping of party music from two floors below, but somehow none of it reached our room once the door was closed.The only drawback is the underground parking garage.  It is super tight width-wise, so if you can avoid driving your Escalade, Tundra, Pilot, H2, etc, I seriously recommend you take a smaller vehicle or something with a smaller turning radius.Great little local hotel in an awesome location - I just wished we had more time to stay another night!  Highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Wow, I am so glad my fiancé found this place!  We like visiting the Cherry Creek North area and he surprised me with special activities over an October weekend culminating into a delightful stay at this boutique hotel.
+The entrance is rather humble and unassuming, even with the clear sign hanging over the sidewalk.  I noted that it is centrally located to all that Cherry Creek North has to offer.  Even the Mall is only 2 blocks away.  We knew we were in great hands when Whitney warmly welcomed us and checked us in.  She was a great example of the rest of the staff as everyone was just so nice, professional, and easy to talk to.  We needed a cab and she arranged for one that picked us up at the promised time.  These folks are very well trained in hospitality and customer service!
+The lobby itself is super cute and comfortable.  A small fireplace sat in one corner by the entrance, while refreshing cucumber water was offered on an end table.  On the other side of the front door was the entrance to the attached restaurant.  The slow elevators behind the front desk took us to the rooms and/or the parking garage, which is available for use for hotel and/or restaurant customers at $10/night.  
+We were upgraded to a King Terrace which came with a sweet patio looking over the area.  The patio had outdoor table, chairs, and...Wow, I am so glad my fiancé found this place!  We like visiting the Cherry Creek North area and he surprised me with special activities over an October weekend culminating into a delightful stay at this boutique hotel.The entrance is rather humble and unassuming, even with the clear sign hanging over the sidewalk.  I noted that it is centrally located to all that Cherry Creek North has to offer.  Even the Mall is only 2 blocks away.  We knew we were in great hands when Whitney warmly welcomed us and checked us in.  She was a great example of the rest of the staff as everyone was just so nice, professional, and easy to talk to.  We needed a cab and she arranged for one that picked us up at the promised time.  These folks are very well trained in hospitality and customer service!The lobby itself is super cute and comfortable.  A small fireplace sat in one corner by the entrance, while refreshing cucumber water was offered on an end table.  On the other side of the front door was the entrance to the attached restaurant.  The slow elevators behind the front desk took us to the rooms and/or the parking garage, which is available for use for hotel and/or restaurant customers at $10/night.  We were upgraded to a King Terrace which came with a sweet patio looking over the area.  The patio had outdoor table, chairs, and umbrella.  As a corner room with large bright windows on both walls, I can imagine this would be a premium place to be during the Arts Festival.  The room itself was lovely, fresh, and modern yet comfortable at the same time with plenty of space to move about. Two delicious cookies, Two Leaves &amp; A Bud tea, and quality toiletries awaited us on the granite countertop, while bright white linens on the luxurious bed anchored the high-ceilinged room.  Water pressure was excellent in the shower, though the curtains aren't quite long enough in the shower so there was quite a bit of splashing.  No tub, but I didn't even notice its absence.  Tons of drawer space to store clothing, and a small flatscreen TV faced the bed from a desk.  WiFi was available with the code.Either there was no one else staying at the hotel, or the rooms were soundproofed - we didn't hear anything from our corner room, even from outside.  In the hallway we could hear the thumping of party music from two floors below, but somehow none of it reached our room once the door was closed.The only drawback is the underground parking garage.  It is super tight width-wise, so if you can avoid driving your Escalade, Tundra, Pilot, H2, etc, I seriously recommend you take a smaller vehicle or something with a smaller turning radius.Great little local hotel in an awesome location - I just wished we had more time to stay another night!  Highly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r150979670-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>150979670</t>
+  </si>
+  <si>
+    <t>01/29/2013</t>
+  </si>
+  <si>
+    <t>Charming hotel in the heart of Cherry Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a great place, and although a bit of a hidden gem they handled an event i did there beautifully.   It's hard for me to rate value as I stay here when I can get a deal on Hotels.com. I'd say if its in your price range and you want to be in Cherry Creek check it out. And check out Canvas and Cocktails next door. Very fun! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r150368238-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>150368238</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Chic &amp; Sophisticated</t>
+  </si>
+  <si>
+    <t>For those of you who enjoy charming smaller hotels with a chic modern atmosphere, the Inn at Cherry Creek is a perfect destination.  The hotel is located in the chic Cherry Hills shopping area which is home to top of the stores including Nordstroms, Neiman Marcus, Marc Jacobs, Ralph Lauren, and Crate &amp; Barrel just to name a few.  In addition, there are more than enough great restaurants within walking distance to keep you coming back.  The hotel rooms are nicely decorated and several of them offer balconies with views of the area.  The hotel hosts a small and cozy bar and dining room which has execelent food and service.  If you are looking for a chic cozy neighborhood hotel, The Inn at Cherry Creek is a good choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>For those of you who enjoy charming smaller hotels with a chic modern atmosphere, the Inn at Cherry Creek is a perfect destination.  The hotel is located in the chic Cherry Hills shopping area which is home to top of the stores including Nordstroms, Neiman Marcus, Marc Jacobs, Ralph Lauren, and Crate &amp; Barrel just to name a few.  In addition, there are more than enough great restaurants within walking distance to keep you coming back.  The hotel rooms are nicely decorated and several of them offer balconies with views of the area.  The hotel hosts a small and cozy bar and dining room which has execelent food and service.  If you are looking for a chic cozy neighborhood hotel, The Inn at Cherry Creek is a good choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r145928486-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>145928486</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>Great Relaxing Refuge</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in August before starting a strenuous backpacking trip in the Rockies. We were exhausted upon arrival after working and packing all week before and then flying in from Seattle. The Inn at Cherry Creek was perfect! The room was lovely, overlooking the patio below. The bed was really comfortable and the pillows fantastic! Seriously, I've had a sore neck and I awoke at the Inn at Cherry Creek with No pain! The toiletries are from "Philosophy" , and wonderful. Because we arrived late in the evening, the fron desk and chef arranged for us to have dinner in our room--which may seem like "no big deal", but they went beyond normal room service--and the food was delicious. The front desk was very helpful our entire stay.The regular parking garage beneath the hotel is VERY cramped. We had a small SUV, becaule we were heading to the mountains. It was treacherous parking below. However, the front desk provided a great parking space for us on the ground level, easily reached from the alley behind. It worked out fine. The hotel location is great--easy walking to restaurants, galleries,boutiques, and the mall. Easy connection, by car, to major roadways and freeways.I would recommend this hotel to anybody, and am looking forward to staying there again, my next trip to Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in August before starting a strenuous backpacking trip in the Rockies. We were exhausted upon arrival after working and packing all week before and then flying in from Seattle. The Inn at Cherry Creek was perfect! The room was lovely, overlooking the patio below. The bed was really comfortable and the pillows fantastic! Seriously, I've had a sore neck and I awoke at the Inn at Cherry Creek with No pain! The toiletries are from "Philosophy" , and wonderful. Because we arrived late in the evening, the fron desk and chef arranged for us to have dinner in our room--which may seem like "no big deal", but they went beyond normal room service--and the food was delicious. The front desk was very helpful our entire stay.The regular parking garage beneath the hotel is VERY cramped. We had a small SUV, becaule we were heading to the mountains. It was treacherous parking below. However, the front desk provided a great parking space for us on the ground level, easily reached from the alley behind. It worked out fine. The hotel location is great--easy walking to restaurants, galleries,boutiques, and the mall. Easy connection, by car, to major roadways and freeways.I would recommend this hotel to anybody, and am looking forward to staying there again, my next trip to Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r145415329-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>145415329</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Here last night. Small boutique hotel. Decent sized room but nicely appointed.  The front desk staff person was very helpful and pleasant to deal with.  Good location in Cherry Creek area. I hosted a dinner at Elway's which was an easy walk from the hotel.  Room did not have much of a view  I was overlooking an alleyway. I heard the trash pick up at 4 AM too.  This is a nice alternative to the larger hotels.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r144658099-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>144658099</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>$$$$ Great location, comfortable room (but noisy!) and a tiny parking garage.</t>
+  </si>
+  <si>
+    <t>First the bad. The hotel parking garage is so narrow and hard to navigate. If you're paying to park overnight, don't bother if you have anything larger than a sedan. I had a prius and was constantly worried I would hit another vehicle or cement pillar.The walls let a lot of noise in. I had to call down to the front desk because one neighbor's TV was so loud it was as if it was in my room. Another morning I was awoken early but a different neighbors phone conversation. I could here sneezes and the smallest noise. I'm not a light sleeper and this was annoying.The hotel staff are friendly, the room is quaint and comfortable. Cleanliness wasn't an issue at all and the hotel soaps/shampoos are nice!The location couldn't be better - right around the corner from a Whole Foods, Starbucks is a 1 minute walk away and there are so many delicious restaurants and shopping nearby!Last small problem, the hotel curtains were either completely black out or sheer. It would have been nice to have a little privacy as my room looked onto the business next door and their office windows.MoreShow less</t>
+  </si>
+  <si>
+    <t>First the bad. The hotel parking garage is so narrow and hard to navigate. If you're paying to park overnight, don't bother if you have anything larger than a sedan. I had a prius and was constantly worried I would hit another vehicle or cement pillar.The walls let a lot of noise in. I had to call down to the front desk because one neighbor's TV was so loud it was as if it was in my room. Another morning I was awoken early but a different neighbors phone conversation. I could here sneezes and the smallest noise. I'm not a light sleeper and this was annoying.The hotel staff are friendly, the room is quaint and comfortable. Cleanliness wasn't an issue at all and the hotel soaps/shampoos are nice!The location couldn't be better - right around the corner from a Whole Foods, Starbucks is a 1 minute walk away and there are so many delicious restaurants and shopping nearby!Last small problem, the hotel curtains were either completely black out or sheer. It would have been nice to have a little privacy as my room looked onto the business next door and their office windows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r139607644-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>139607644</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Excellent choice in Denver</t>
+  </si>
+  <si>
+    <t>I travel frequently to Denver and Boulder, and this is by far the best hotel I've been in. The location can't be beat, as it is right in the middle of a thriving upscale area with loads of great restaurants and shops. It's a small boutique-style hotel with a cramped lobby and adequate restaurant, nothing glamorous, but a very cozy feel. Rooms are really good, with the king balcony room (my choice) featuring a great deck overlooking the street. It's only a few blocks away from Cherry Creek Park, with endless trails for running, biking and walking. Starbucks is a one-minute walk and opens at 6am for us early risers, and Whole Foods is a couple of blocks away if you really must spend time with ultra-groovy and overly helpful local hipsters.It's hard to find a decent place in a good location that is not too corporate, but this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>I travel frequently to Denver and Boulder, and this is by far the best hotel I've been in. The location can't be beat, as it is right in the middle of a thriving upscale area with loads of great restaurants and shops. It's a small boutique-style hotel with a cramped lobby and adequate restaurant, nothing glamorous, but a very cozy feel. Rooms are really good, with the king balcony room (my choice) featuring a great deck overlooking the street. It's only a few blocks away from Cherry Creek Park, with endless trails for running, biking and walking. Starbucks is a one-minute walk and opens at 6am for us early risers, and Whole Foods is a couple of blocks away if you really must spend time with ultra-groovy and overly helpful local hipsters.It's hard to find a decent place in a good location that is not too corporate, but this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r137490276-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>137490276</t>
+  </si>
+  <si>
+    <t>08/17/2012</t>
+  </si>
+  <si>
+    <t>Great Service at our Company Offsite</t>
+  </si>
+  <si>
+    <t>We recently held a 3 day sales offsite at the Inn at Cherry Creek and we could not have been more pleased with the service and the value we received from the hotel and its employees.  Not only did they work with us to make our event economical (versus other hotels in the area) but the service we received during our stay was superb.  The General Manager was a great help in planning, the onsite service we received in the room during our meetings was outstanding (so good that my team wrote a commendation letter to the GM) and all the staff were helpful and friendly. The Inn at Cherry Creek is a darling boutique hotel in a great location, and with a customer service oriented approach to all they deliver.  They helped ensure a successful, comfortable and effective meeting.MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently held a 3 day sales offsite at the Inn at Cherry Creek and we could not have been more pleased with the service and the value we received from the hotel and its employees.  Not only did they work with us to make our event economical (versus other hotels in the area) but the service we received during our stay was superb.  The General Manager was a great help in planning, the onsite service we received in the room during our meetings was outstanding (so good that my team wrote a commendation letter to the GM) and all the staff were helpful and friendly. The Inn at Cherry Creek is a darling boutique hotel in a great location, and with a customer service oriented approach to all they deliver.  They helped ensure a successful, comfortable and effective meeting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r136245548-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>136245548</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Cozy, Well Located, Helpful Staff!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for 5 nights from 29 July to 3 August 2012. This is a boutique hotel with only 35 rooms and suites. We had booked about a month ago and hence did find a good, cozy and quiet room (# 406) - with a Queen Size bed. The best thing about this Hotel is that it is located 2 blocks away from the Cherry Creek Mall - 3 clear advantages - 1) Gray Line buses which do excellent tours in and around Denver area, start from the Mall and they also do pick-ups from the Hotel - 2) you can spend a day or two browsing and shopping from over 200 shops in and around the mall - all located within walking distance. 3) area also has very good casual and fine dining restaurants and this results in not having to travel distances for meals!The staff is very friendly and at no extra charge helped me in booking the Super Shuttle from the Hotel to the Airport (USD 22 as against paying USD 65+ for a taxi). All in all we paid a reasonable USD 166 +taxes of USD 24 - USD 190 per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed for 5 nights from 29 July to 3 August 2012. This is a boutique hotel with only 35 rooms and suites. We had booked about a month ago and hence did find a good, cozy and quiet room (# 406) - with a Queen Size bed. The best thing about this Hotel is that it is located 2 blocks away from the Cherry Creek Mall - 3 clear advantages - 1) Gray Line buses which do excellent tours in and around Denver area, start from the Mall and they also do pick-ups from the Hotel - 2) you can spend a day or two browsing and shopping from over 200 shops in and around the mall - all located within walking distance. 3) area also has very good casual and fine dining restaurants and this results in not having to travel distances for meals!The staff is very friendly and at no extra charge helped me in booking the Super Shuttle from the Hotel to the Airport (USD 22 as against paying USD 65+ for a taxi). All in all we paid a reasonable USD 166 +taxes of USD 24 - USD 190 per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r134063282-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>134063282</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Less Boutique and More Hotel</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this "Inn" for three nights recently.  The room was very small and lacking any warmth.  There were few if any amenities in the room or the inn in general.  The staff was incredibly lacking in knowledge of their own facilities.  I asked what time the small restaurant attached to the hotel opened and they said that it didn't open until 8AM.  It turned out that it opened at 7AM.  Also, the room across from us had a dirty room service tray outside their door at 8AM one morning.  I told the front desk at noon that it was there and again at 5PM that it was there.  They seemed totally uncaring.  The tray finally was collected sometime the next night.  By the way, the parking garage for the hotel is like driving in a miniature obstacle course!  If your car is larger than a compact, find somewhere else to park and save their parking fee.  All in all, this inn was grossly over priced.  It is a great location for the Cherry Creek area.  Hopefully a good inn will take over the property sometime soon.  I would not stay there again.  There are better places nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at this "Inn" for three nights recently.  The room was very small and lacking any warmth.  There were few if any amenities in the room or the inn in general.  The staff was incredibly lacking in knowledge of their own facilities.  I asked what time the small restaurant attached to the hotel opened and they said that it didn't open until 8AM.  It turned out that it opened at 7AM.  Also, the room across from us had a dirty room service tray outside their door at 8AM one morning.  I told the front desk at noon that it was there and again at 5PM that it was there.  They seemed totally uncaring.  The tray finally was collected sometime the next night.  By the way, the parking garage for the hotel is like driving in a miniature obstacle course!  If your car is larger than a compact, find somewhere else to park and save their parking fee.  All in all, this inn was grossly over priced.  It is a great location for the Cherry Creek area.  Hopefully a good inn will take over the property sometime soon.  I would not stay there again.  There are better places nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r133145636-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>133145636</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Tiny room but great location</t>
+  </si>
+  <si>
+    <t>Stayed for one night only late May. The hotel is conveniently located close to many restaruants and the Cherry Creek Shopping Mall - can't be beaten for location, However I would have to say that after the hundreds of hotel rooms I have occupied over the years - this was by far the smallest. It was just a Queen bed and barely enough room to walk around it -  it works - but only just. For one night only it did the job,  but I couldn't have tolerated it for any longer.  Brio down the street is a magnificent Italian restaruant worthy of a medal.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r132395280-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>132395280</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Location, location, location</t>
+  </si>
+  <si>
+    <t>The Inn seems to be in the heart of "where it's at."  Lots of shopping, lots of restaurants, close to the Cherry Creek trail, around the corner from a yummy frozen yogurt shop, within easy drive of downtown.  Staff was helpful; our King Deluxe room was especially clean and rather roomy; terrific detailing on the furniture.  I'd prefer ventilation in the bathroom. When I visit Denver again, I'd book here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r130109920-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>130109920</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>What a great place to stay</t>
+  </si>
+  <si>
+    <t>a couple times a year.we meet relatives in Denver. we live in the mountains and during off-season there is little to do as Vail pretty much shuts down during mud season.I was not famliar
+with Inn at Cherry Creek when we booked the room.we were pleased when we checked in.
+Yes the rooms are smaller than average. However there are rooms with balconys that were 
+bigger than the average room.In the past we have stayed at the J.W.Marrott. This is a much better place to stay, and it doesn't smell like old people.
+The real treat is its location. right behind the Cheey Cricket. you can walk anywhere you ne ed to
+in North Chery Creek and the mall is a block away. Dining is great everywhere you turn ,Itailian,sushi, and Elways is across the street.Speaking of dining, the Inn has a great place to dine the breakfast is cheap and the very best in the nieghborhood.Dinner is also worth trying. 
+Next store is a crazy place that combines the concept of mixing wine with teaching painting. about 8:00 pm it gets pretty rowdy. Go next store and check it out.. Don't worry about parking.
+They have access from the back of the hotel for larger cars. Speaking of the Cherry Cricket,
+This classic dive bar in Denver is worth a visit. Built in stages it reflects the many years it has been around. Some of the best burgers in...a couple times a year.we meet relatives in Denver. we live in the mountains and during off-season there is little to do as Vail pretty much shuts down during mud season.I was not famliarwith Inn at Cherry Creek when we booked the room.we were pleased when we checked in.Yes the rooms are smaller than average. However there are rooms with balconys that were bigger than the average room.In the past we have stayed at the J.W.Marrott. This is a much better place to stay, and it doesn't smell like old people.The real treat is its location. right behind the Cheey Cricket. you can walk anywhere you ne ed toin North Chery Creek and the mall is a block away. Dining is great everywhere you turn ,Itailian,sushi, and Elways is across the street.Speaking of dining, the Inn has a great place to dine the breakfast is cheap and the very best in the nieghborhood.Dinner is also worth trying. Next store is a crazy place that combines the concept of mixing wine with teaching painting. about 8:00 pm it gets pretty rowdy. Go next store and check it out.. Don't worry about parking.They have access from the back of the hotel for larger cars. Speaking of the Cherry Cricket,This classic dive bar in Denver is worth a visit. Built in stages it reflects the many years it has been around. Some of the best burgers in Denver. this is the best place to watch the Broncosor other football games.We are already making plans to stay the again, this time with our Golden Retriever.Check the website ,it will save you on bookings.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>a couple times a year.we meet relatives in Denver. we live in the mountains and during off-season there is little to do as Vail pretty much shuts down during mud season.I was not famliar
+with Inn at Cherry Creek when we booked the room.we were pleased when we checked in.
+Yes the rooms are smaller than average. However there are rooms with balconys that were 
+bigger than the average room.In the past we have stayed at the J.W.Marrott. This is a much better place to stay, and it doesn't smell like old people.
+The real treat is its location. right behind the Cheey Cricket. you can walk anywhere you ne ed to
+in North Chery Creek and the mall is a block away. Dining is great everywhere you turn ,Itailian,sushi, and Elways is across the street.Speaking of dining, the Inn has a great place to dine the breakfast is cheap and the very best in the nieghborhood.Dinner is also worth trying. 
+Next store is a crazy place that combines the concept of mixing wine with teaching painting. about 8:00 pm it gets pretty rowdy. Go next store and check it out.. Don't worry about parking.
+They have access from the back of the hotel for larger cars. Speaking of the Cherry Cricket,
+This classic dive bar in Denver is worth a visit. Built in stages it reflects the many years it has been around. Some of the best burgers in...a couple times a year.we meet relatives in Denver. we live in the mountains and during off-season there is little to do as Vail pretty much shuts down during mud season.I was not famliarwith Inn at Cherry Creek when we booked the room.we were pleased when we checked in.Yes the rooms are smaller than average. However there are rooms with balconys that were bigger than the average room.In the past we have stayed at the J.W.Marrott. This is a much better place to stay, and it doesn't smell like old people.The real treat is its location. right behind the Cheey Cricket. you can walk anywhere you ne ed toin North Chery Creek and the mall is a block away. Dining is great everywhere you turn ,Itailian,sushi, and Elways is across the street.Speaking of dining, the Inn has a great place to dine the breakfast is cheap and the very best in the nieghborhood.Dinner is also worth trying. Next store is a crazy place that combines the concept of mixing wine with teaching painting. about 8:00 pm it gets pretty rowdy. Go next store and check it out.. Don't worry about parking.They have access from the back of the hotel for larger cars. Speaking of the Cherry Cricket,This classic dive bar in Denver is worth a visit. Built in stages it reflects the many years it has been around. Some of the best burgers in Denver. this is the best place to watch the Broncosor other football games.We are already making plans to stay the again, this time with our Golden Retriever.Check the website ,it will save you on bookings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r130050196-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>130050196</t>
+  </si>
+  <si>
+    <t>05/16/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>I came for business and the hotel was perfect.   The front desk attendant was absolutely phenomenal.   I got an early check-in with an explanation of all the services in the area I need with great directions.  The room was great, with wonderful bedding and amenities.  The room was very quiet, even though it's in a busy neighborhood.  The hotel itself is in a great neighborhood for shopping, eating and browsing.  Overall a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r127635528-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>127635528</t>
+  </si>
+  <si>
+    <t>04/10/2012</t>
+  </si>
+  <si>
+    <t>Great spot in center of Cherry Creek</t>
+  </si>
+  <si>
+    <t>Visiting family in the neighborhood, within walking distance of restaurants, shopping, Whole Foods. Comfortable, convenient, small restaurant with good menu, excellent staff. The rooms have all you need, comfortable beds, Wifi, BIG bathtubs, thick robes, etc. Much better than the near by chain hotels. We will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r126209286-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>126209286</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>One of the reasons my wife and I stayed at the Inn at Cherry Creek recently was location. We found the Inn to be a great boutique hotel, centrally located in the Cherry Creek District at a great value. Staff is very friendly, our terrace room facing Clayton Street on the top floor had a nice view and the breakfast downstairs was delicious. We highly recommend it.Ah...one more thing, the underground parking garage qualifies as a thrill ride!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r125724503-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>125724503</t>
+  </si>
+  <si>
+    <t>03/06/2012</t>
+  </si>
+  <si>
+    <t>Lots of potential, not a great stay</t>
+  </si>
+  <si>
+    <t>This is a neat hotel, but misses the point on a couple of important items. 1. Dumpsters get emptied almost every morning around 4 am and the sound is incredibly loud.2. Unless you have a compact car, good luck parking, the spaces are very small.3. The wireless connectivity didn't work more than half of the time and when it did the signal was so weak that nothing would load. The Rooms are nice and comfortable; it is in a nice area.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r124933993-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>124933993</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>European feel in Cherry Creek</t>
+  </si>
+  <si>
+    <t>Quaint,boutique hotel. Very clean. Upscale toiletries,comfortable bed. Room was small but very functional. Friendly staff. The restaurant was wonderful. Very european feel!</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r119241670-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>119241670</t>
+  </si>
+  <si>
+    <t>10/12/2011</t>
+  </si>
+  <si>
+    <t>Cozy and convenient</t>
+  </si>
+  <si>
+    <t>I was booked at the inn for a 4-day business trip, and (mostly) enjoyed my stay.The positives: high-end toiletries including makeup remover wipes (a rarity), in-room safe, free and reliable/strong wifi, very comfortable bed with upscale linens, terrific lighting and a make-up/shaving mirror at the sink, iced cucumber/lemon water in the lobby at all times (Denver is DRY). Also, good central location in an affluent, highly walkable neighborhood (several non-chain restaurant choices and local shops).  The negatives: noisy hallways with doors that SLAM and thin walls overall (could hear TVs in other rooms).  Who are these loud people at 11 pm and 5 am??Overall, a very pleasant stay in a great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I was booked at the inn for a 4-day business trip, and (mostly) enjoyed my stay.The positives: high-end toiletries including makeup remover wipes (a rarity), in-room safe, free and reliable/strong wifi, very comfortable bed with upscale linens, terrific lighting and a make-up/shaving mirror at the sink, iced cucumber/lemon water in the lobby at all times (Denver is DRY). Also, good central location in an affluent, highly walkable neighborhood (several non-chain restaurant choices and local shops).  The negatives: noisy hallways with doors that SLAM and thin walls overall (could hear TVs in other rooms).  Who are these loud people at 11 pm and 5 am??Overall, a very pleasant stay in a great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r118848671-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>118848671</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>Beware of fourth floor noisy rooms</t>
+  </si>
+  <si>
+    <t>Our first "terrace" room was small with non-functional terrace (overlooked air conditioning, only 1 chair for 2 people), but the the noise was unbearable.  Evidently the air conditioning for the hotel must be above room 404, and we were kept awake all night by rumbling that rattled the walls.  The next day, the staff allowed us to move to a larger room on the third floor with a fireplace, much roomier and quieter.  The staff was not very apologetic about the noise.  Parking garage is very tight and it would be difficult to park a large car or SUV.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r118386424-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>118386424</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Great location, pleasant staff</t>
+  </si>
+  <si>
+    <t>Easy to park, convenient for shopping and eating.  The pleasant and helpful man at the front desk quickly helped us with the desired upgrade to a room with a balcony.  Comfortable beds, clean room, great balcony - couldn't ask for more.  We had a lovely breakfast on the patio to start our day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r95186079-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>95186079</t>
+  </si>
+  <si>
+    <t>02/01/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for one night, just for a 'get away' trip.  The hotel was clean and comfortable, very charming.  The location is obviously amazing being smack dab in the middle of Cherry Creek.  We had dinner at the Weber which was a pleasant surprise - the food was amazing (don't let the small size of the dining room fool you).  It was a great night away from the kids and would go back there again for sure.</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r72914392-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>72914392</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>Quiet, quaint, thoughtfully designed</t>
+  </si>
+  <si>
+    <t>My husband had business in the area and I booked this hotel based on reviews found on the internet.  I think it is a nice place to stay and mostly thoughtfully designed.  The bedding is luxurious.  Bath was nicely designed.  We thought we'd like the fireplace if it had been winter.  Parking is available for $10 a day below and necessary in the area. The parking garage is difficult to maneuver and we were told it was an engineering design, so just had to deal with it.  Large SUV's actually have to park in a different place they have available.  The neighborhood is high end and appears safe, although questionable how I'd feel about parking in the underground ramp with no security.  Also, no security I could see from ramp to guest rooms.  The neighborhood is fantastic to walk around in - lots of boutiques and the Cherry Creek Mall has all the luxury anchors.  I didn't book a meal plan so did not get a cookie or any other welcome in our room.  Daily housekeeping was excellent.  Lighting - ouch.  Please tell me why you can't put in light bulbs which are adequate to read? Wi-fi is free in the lobby.  Plug in internet free in the room. We had a Juliet balcony and could see mountains over industrial rooftops but it was very quiet.  Would have loved to have a mini-fridge so we could have brought over a...My husband had business in the area and I booked this hotel based on reviews found on the internet.  I think it is a nice place to stay and mostly thoughtfully designed.  The bedding is luxurious.  Bath was nicely designed.  We thought we'd like the fireplace if it had been winter.  Parking is available for $10 a day below and necessary in the area. The parking garage is difficult to maneuver and we were told it was an engineering design, so just had to deal with it.  Large SUV's actually have to park in a different place they have available.  The neighborhood is high end and appears safe, although questionable how I'd feel about parking in the underground ramp with no security.  Also, no security I could see from ramp to guest rooms.  The neighborhood is fantastic to walk around in - lots of boutiques and the Cherry Creek Mall has all the luxury anchors.  I didn't book a meal plan so did not get a cookie or any other welcome in our room.  Daily housekeeping was excellent.  Lighting - ouch.  Please tell me why you can't put in light bulbs which are adequate to read? Wi-fi is free in the lobby.  Plug in internet free in the room. We had a Juliet balcony and could see mountains over industrial rooftops but it was very quiet.  Would have loved to have a mini-fridge so we could have brought over a snack from the nearby Whole Foods or the Safeway within walking distance.  Breakfast menus were in room and prices were reasonable.  Coffee maker service for two was good.  The hotel had a number of guests convalescing from plastic surgery. That was a bit unexpected.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My husband had business in the area and I booked this hotel based on reviews found on the internet.  I think it is a nice place to stay and mostly thoughtfully designed.  The bedding is luxurious.  Bath was nicely designed.  We thought we'd like the fireplace if it had been winter.  Parking is available for $10 a day below and necessary in the area. The parking garage is difficult to maneuver and we were told it was an engineering design, so just had to deal with it.  Large SUV's actually have to park in a different place they have available.  The neighborhood is high end and appears safe, although questionable how I'd feel about parking in the underground ramp with no security.  Also, no security I could see from ramp to guest rooms.  The neighborhood is fantastic to walk around in - lots of boutiques and the Cherry Creek Mall has all the luxury anchors.  I didn't book a meal plan so did not get a cookie or any other welcome in our room.  Daily housekeeping was excellent.  Lighting - ouch.  Please tell me why you can't put in light bulbs which are adequate to read? Wi-fi is free in the lobby.  Plug in internet free in the room. We had a Juliet balcony and could see mountains over industrial rooftops but it was very quiet.  Would have loved to have a mini-fridge so we could have brought over a...My husband had business in the area and I booked this hotel based on reviews found on the internet.  I think it is a nice place to stay and mostly thoughtfully designed.  The bedding is luxurious.  Bath was nicely designed.  We thought we'd like the fireplace if it had been winter.  Parking is available for $10 a day below and necessary in the area. The parking garage is difficult to maneuver and we were told it was an engineering design, so just had to deal with it.  Large SUV's actually have to park in a different place they have available.  The neighborhood is high end and appears safe, although questionable how I'd feel about parking in the underground ramp with no security.  Also, no security I could see from ramp to guest rooms.  The neighborhood is fantastic to walk around in - lots of boutiques and the Cherry Creek Mall has all the luxury anchors.  I didn't book a meal plan so did not get a cookie or any other welcome in our room.  Daily housekeeping was excellent.  Lighting - ouch.  Please tell me why you can't put in light bulbs which are adequate to read? Wi-fi is free in the lobby.  Plug in internet free in the room. We had a Juliet balcony and could see mountains over industrial rooftops but it was very quiet.  Would have loved to have a mini-fridge so we could have brought over a snack from the nearby Whole Foods or the Safeway within walking distance.  Breakfast menus were in room and prices were reasonable.  Coffee maker service for two was good.  The hotel had a number of guests convalescing from plastic surgery. That was a bit unexpected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r70562443-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>70562443</t>
+  </si>
+  <si>
+    <t>07/11/2010</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek creates a pleasant stay with their excellent effort in customer service and attention to details</t>
+  </si>
+  <si>
+    <t>We rented two rooms at the Inn at Cherry Creek for one night in June 2010.  We were very pleased with each room and an excellent night of sleep.  It was quiet, the bed was comfortable, and there was a very delicious homemade cookie in the room for a snack!  We had a nice breakfast the following morning included in our room rate.  I was there because I wanted the convenience in walking to Saks Galleries where I went to an opening reception for an art show I was in.  It's location is great for shopping and enjoying the area of Cherry Creek.  I found the staff extremely friendly, efficient and helpful with whatever questions we had.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>We rented two rooms at the Inn at Cherry Creek for one night in June 2010.  We were very pleased with each room and an excellent night of sleep.  It was quiet, the bed was comfortable, and there was a very delicious homemade cookie in the room for a snack!  We had a nice breakfast the following morning included in our room rate.  I was there because I wanted the convenience in walking to Saks Galleries where I went to an opening reception for an art show I was in.  It's location is great for shopping and enjoying the area of Cherry Creek.  I found the staff extremely friendly, efficient and helpful with whatever questions we had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r62770760-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>62770760</t>
+  </si>
+  <si>
+    <t>04/29/2010</t>
+  </si>
+  <si>
+    <t>Cozy and Quaint</t>
+  </si>
+  <si>
+    <t>There was nothing really significant that stood out about this hotel, except for the complimentary cookies in my room which appeared to be home-made and were warm when I arrived. Other than that the beds were a bit small and the room was comfortable enough but nothing spectacular. The hotel is in a convenient location for shopping, restaurants, etc. There is a starbucks less than a block away and the Cherry Creek Shopping Centre is probably two blocks away.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r58322343-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>58322343</t>
+  </si>
+  <si>
+    <t>03/11/2010</t>
+  </si>
+  <si>
+    <t>highly recommend this hotel</t>
+  </si>
+  <si>
+    <t>the hotel was centrally located to where we were working which is one of the main reasons why we selected to stay here.  What we encountered was a quaint boutique hotel in a great location with a wonderful staff.  Our rooms were all different but lovely and everyone felt safe and at home.  We were a large group of 14 and the staff was all very prepared to make our stay comfortable.  I would high recommend this hotel to anyone going to the Cherry Creek area.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r55349106-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>55349106</t>
+  </si>
+  <si>
+    <t>02/06/2010</t>
+  </si>
+  <si>
+    <t>Worst Stay of My Life - Go to the Marriott a  Block Away Instead !!!!!!!</t>
+  </si>
+  <si>
+    <t>More than two months ago, I complained about the noisy maid service early in the morning, etc., etc., without the benefit of a response.  I asked to be removed from their list, and two months later?  After several requests? They keep emailing me.  HERE'S A LIST OF MY COMPLAINTS, THAT I EMAILED THEM, WITHOUT A RESPONSE:
+This is the WORST stay we've ever experienced and will NEVER stay at your hotel again.
+We are very seriously considering writing feedback all over the Internet to warn others!!!!!!!
+Noisy maid service wakes you up first thing in the morning!!! Won't shut up!!!!!  Yelling down the hall about guest in number 315 and 402 and laughing (horrible laugh) and yelling back and forth rather than actually speaking softly next to each other in order LET OTHER PEOPLE SLEEP!!!!!!!!!!
+We went to your place thinking it was INTIMATE, and QUIET, and DESPITE requesting a QUIET ROOM, it was the noisiest room we've ever stayed in.
+We can't tell you what a mistake it was not to stay down the street at the Marriott, where we usually stay.  We paid your highest rate only to be DISTURBED over and over again.
+My husband had surgery and had to stay overnight to see the doctor the next morning, and all I can say is we thought you would be a good choice but were SEVERELY DISAPPOINTED!!!!!!!
+We had to take up two parking spots in order...More than two months ago, I complained about the noisy maid service early in the morning, etc., etc., without the benefit of a response.  I asked to be removed from their list, and two months later?  After several requests? They keep emailing me.  HERE'S A LIST OF MY COMPLAINTS, THAT I EMAILED THEM, WITHOUT A RESPONSE:This is the WORST stay we've ever experienced and will NEVER stay at your hotel again.We are very seriously considering writing feedback all over the Internet to warn others!!!!!!!Noisy maid service wakes you up first thing in the morning!!! Won't shut up!!!!!  Yelling down the hall about guest in number 315 and 402 and laughing (horrible laugh) and yelling back and forth rather than actually speaking softly next to each other in order LET OTHER PEOPLE SLEEP!!!!!!!!!!We went to your place thinking it was INTIMATE, and QUIET, and DESPITE requesting a QUIET ROOM, it was the noisiest room we've ever stayed in.We can't tell you what a mistake it was not to stay down the street at the Marriott, where we usually stay.  We paid your highest rate only to be DISTURBED over and over again.My husband had surgery and had to stay overnight to see the doctor the next morning, and all I can say is we thought you would be a good choice but were SEVERELY DISAPPOINTED!!!!!!!We had to take up two parking spots in order to safeguard our $175,000 car... and shrieked every time we went in and out of your parking lot!!!!  Scared the hell out of me!!!!!   What a mistake!!!!Never, never again... and if I do not get some sort of response, I plan on leaving NEGATIVE FEEDBACK all over the Internet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>More than two months ago, I complained about the noisy maid service early in the morning, etc., etc., without the benefit of a response.  I asked to be removed from their list, and two months later?  After several requests? They keep emailing me.  HERE'S A LIST OF MY COMPLAINTS, THAT I EMAILED THEM, WITHOUT A RESPONSE:
+This is the WORST stay we've ever experienced and will NEVER stay at your hotel again.
+We are very seriously considering writing feedback all over the Internet to warn others!!!!!!!
+Noisy maid service wakes you up first thing in the morning!!! Won't shut up!!!!!  Yelling down the hall about guest in number 315 and 402 and laughing (horrible laugh) and yelling back and forth rather than actually speaking softly next to each other in order LET OTHER PEOPLE SLEEP!!!!!!!!!!
+We went to your place thinking it was INTIMATE, and QUIET, and DESPITE requesting a QUIET ROOM, it was the noisiest room we've ever stayed in.
+We can't tell you what a mistake it was not to stay down the street at the Marriott, where we usually stay.  We paid your highest rate only to be DISTURBED over and over again.
+My husband had surgery and had to stay overnight to see the doctor the next morning, and all I can say is we thought you would be a good choice but were SEVERELY DISAPPOINTED!!!!!!!
+We had to take up two parking spots in order...More than two months ago, I complained about the noisy maid service early in the morning, etc., etc., without the benefit of a response.  I asked to be removed from their list, and two months later?  After several requests? They keep emailing me.  HERE'S A LIST OF MY COMPLAINTS, THAT I EMAILED THEM, WITHOUT A RESPONSE:This is the WORST stay we've ever experienced and will NEVER stay at your hotel again.We are very seriously considering writing feedback all over the Internet to warn others!!!!!!!Noisy maid service wakes you up first thing in the morning!!! Won't shut up!!!!!  Yelling down the hall about guest in number 315 and 402 and laughing (horrible laugh) and yelling back and forth rather than actually speaking softly next to each other in order LET OTHER PEOPLE SLEEP!!!!!!!!!!We went to your place thinking it was INTIMATE, and QUIET, and DESPITE requesting a QUIET ROOM, it was the noisiest room we've ever stayed in.We can't tell you what a mistake it was not to stay down the street at the Marriott, where we usually stay.  We paid your highest rate only to be DISTURBED over and over again.My husband had surgery and had to stay overnight to see the doctor the next morning, and all I can say is we thought you would be a good choice but were SEVERELY DISAPPOINTED!!!!!!!We had to take up two parking spots in order to safeguard our $175,000 car... and shrieked every time we went in and out of your parking lot!!!!  Scared the hell out of me!!!!!   What a mistake!!!!Never, never again... and if I do not get some sort of response, I plan on leaving NEGATIVE FEEDBACK all over the Internet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r41122573-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>41122573</t>
+  </si>
+  <si>
+    <t>09/12/2009</t>
+  </si>
+  <si>
+    <t>A Great Discovery!</t>
+  </si>
+  <si>
+    <t>The Inn at Cherry Creek is a quaint boutique hotel which reminded me a lot of the places I've stayed at in Europe.  An intimate location, with a friendly and accommodating staff, that give this hotel a welcoming personality. Their restaurant is small, quiet and serves  great food. It was nice to stay at a small place for a change.  It made my experience feel like I was at home.  Anybody looking to for a change from the big hotels, check this place out.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r40112582-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>40112582</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>This is a very pretty hotel.  But it lacks the services I was expecting given the location and the price.  I had reserved a King room and we got a bed that I don't think was even Queen size.  Our room was in the back of the building on the third floor.  This overlooks the parking lot and the buildings on the next street.  This is behind the Cherry Cricket bar which has an outdoor patio.  It gets very noisy at night.  There is no bell captain service so you take your luggage to your room.  Parking is in the garage adjacent to the building, but they don't make it clear when you make the reservations of where to go.  You don't need a permit for the garage, but you don't know that until you check-in and parking on the street can be a hassle.  The printer on the computer in the lobby was broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>This is a very pretty hotel.  But it lacks the services I was expecting given the location and the price.  I had reserved a King room and we got a bed that I don't think was even Queen size.  Our room was in the back of the building on the third floor.  This overlooks the parking lot and the buildings on the next street.  This is behind the Cherry Cricket bar which has an outdoor patio.  It gets very noisy at night.  There is no bell captain service so you take your luggage to your room.  Parking is in the garage adjacent to the building, but they don't make it clear when you make the reservations of where to go.  You don't need a permit for the garage, but you don't know that until you check-in and parking on the street can be a hassle.  The printer on the computer in the lobby was broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r36584074-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>36584074</t>
+  </si>
+  <si>
+    <t>08/03/2009</t>
+  </si>
+  <si>
+    <t>The great location of The Inn at Cherry Creek only added to the clean and comfortable rooms.</t>
+  </si>
+  <si>
+    <t>I enjoyed our stay at the Inn. I loved the outdoor patio with table and chairs. I am always looking for fresh air and the ability to sit outside when I go to hotels. The restaurant was great  . The food fresh and the variety enjoyable.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r36264589-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>36264589</t>
+  </si>
+  <si>
+    <t>07/30/2009</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>It was a pleasure staying in the Inn at Cherry Creek</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r32141669-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>32141669</t>
+  </si>
+  <si>
+    <t>06/11/2009</t>
+  </si>
+  <si>
+    <t>Best Kept Secret in Cherry Creek</t>
+  </si>
+  <si>
+    <t>We were privledged to stay at the Inn at Cherry Creek during a recent trip to CO. for our daughter's graduation from The Univ. of Denver.  The Inn is located within walking distance to many wonderful boutiques, restaurants, and the Cherry Creek Mall. Our suite was exceptional in every way - clean, spacious, tastefully decorated, and very comfortable.  The staff was incredibly attentive, knowledgeable, and friendly.  The restaurant offered a variety of culinary delights, beautifully presented, and had a nice wine list, as well.  Here again, the wait staff was top-notch.  We thoroughly enjoyed the ambience of this Inn, and highly recommend it.</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r24486997-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>24486997</t>
+  </si>
+  <si>
+    <t>02/11/2009</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>I almost hate to leave this review, as I don't want to compete with others for reservations when I return, but:  this is such a great little hotel in the fashionable Cherry Creek district of Denver.  Wonderful rooms with fireplaces, great restaurant, attentive and efficient staff...  can't say enough good things.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r6317015-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>6317015</t>
+  </si>
+  <si>
+    <t>12/01/2006</t>
+  </si>
+  <si>
+    <t>great location, odd challenges</t>
+  </si>
+  <si>
+    <t>The location is fabulous and the ambience in the lobby is lovely.The parking garage is a tiny maze, poorly marked and very tight to manuever in anything larger than a golf cart.The staff were helpful and friendly, the room nicely appointed but quite small.  The bed was ok but it groaned and sagged here and there.  Nice touch to have the toilet with its own door so that 2 people can share bathroom comfortably.The heating system worked well.No complimentary bottled water, but price of $1/bottle was very fair.I was quite surprised to find that they had put in an authorization to my card for $100 (for addtional charges that I might have incurred) beyond the cost of the room; I was assured that it would be adjusted by my bank when they got the actual charges in no more that 10 days; I found it annoying to lose the use of $100 for that long.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>The location is fabulous and the ambience in the lobby is lovely.The parking garage is a tiny maze, poorly marked and very tight to manuever in anything larger than a golf cart.The staff were helpful and friendly, the room nicely appointed but quite small.  The bed was ok but it groaned and sagged here and there.  Nice touch to have the toilet with its own door so that 2 people can share bathroom comfortably.The heating system worked well.No complimentary bottled water, but price of $1/bottle was very fair.I was quite surprised to find that they had put in an authorization to my card for $100 (for addtional charges that I might have incurred) beyond the cost of the room; I was assured that it would be adjusted by my bank when they got the actual charges in no more that 10 days; I found it annoying to lose the use of $100 for that long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r5539233-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>5539233</t>
+  </si>
+  <si>
+    <t>08/01/2006</t>
+  </si>
+  <si>
+    <t>Terribly Disappointed</t>
+  </si>
+  <si>
+    <t>After reading good reviews on this site, we were shocked at the bad experience we had.  Everything went wrong, from the desk clerk who refused to acknowledge our existence, to being provided with a smaller room than we had paid for, to being told to park in an underground garage that was too small to fit our regular SUV (we were told a day later that there was a small garage to the rear of the hotel that would have made parking easier). To top off everything, the room we were given was directly on top of a very loud band that was to play until 11pm. The room's condition was poor and the shower was falling apart. One of the managers attempted to make things better, but it was too little too late.  We moved to the JW Marriot, right down the street and felt like we had moved from a third world country back to the U.S.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading good reviews on this site, we were shocked at the bad experience we had.  Everything went wrong, from the desk clerk who refused to acknowledge our existence, to being provided with a smaller room than we had paid for, to being told to park in an underground garage that was too small to fit our regular SUV (we were told a day later that there was a small garage to the rear of the hotel that would have made parking easier). To top off everything, the room we were given was directly on top of a very loud band that was to play until 11pm. The room's condition was poor and the shower was falling apart. One of the managers attempted to make things better, but it was too little too late.  We moved to the JW Marriot, right down the street and felt like we had moved from a third world country back to the U.S.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r5224678-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>5224678</t>
+  </si>
+  <si>
+    <t>05/25/2006</t>
+  </si>
+  <si>
+    <t>great location, not so great room</t>
+  </si>
+  <si>
+    <t>We stayed here only one night on a recent trip to Denver. The location is terrific. You are smack in the middle of Cherry Creek and can park your car overnight for only $10 and walk to everything. This property has some major noise issues though. We started in a terrace room on the 4th floor, but the noise of the air conditioner was like having a bass speaker buzzing non-stop .The front desk people were very responsive and offered us 2 other rooms to choose from. We took the Jr Suite on the 3rd floor - ok room but has a double bed. yuck. And no patio.  A lightbulb was burned out. The game table was broken. You hear lots of noise from the bathrooms overhead - thanks to whoever was throwing up at 6 am. There was the MOST disgusting brown something under the sink where I finally found the hair dryer. The only rooms I would consider staying in are on the 3rd floor terrace room - don't know what the noise is there. The beds are comfortable but the place seems to be cheaply built and is already in dis-repair after a year. Pluses: location, great front desk staff, very comfortable beds, cheap parking, good towelsMinuses: noise noise noise. Sloppy upkeepMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here only one night on a recent trip to Denver. The location is terrific. You are smack in the middle of Cherry Creek and can park your car overnight for only $10 and walk to everything. This property has some major noise issues though. We started in a terrace room on the 4th floor, but the noise of the air conditioner was like having a bass speaker buzzing non-stop .The front desk people were very responsive and offered us 2 other rooms to choose from. We took the Jr Suite on the 3rd floor - ok room but has a double bed. yuck. And no patio.  A lightbulb was burned out. The game table was broken. You hear lots of noise from the bathrooms overhead - thanks to whoever was throwing up at 6 am. There was the MOST disgusting brown something under the sink where I finally found the hair dryer. The only rooms I would consider staying in are on the 3rd floor terrace room - don't know what the noise is there. The beds are comfortable but the place seems to be cheaply built and is already in dis-repair after a year. Pluses: location, great front desk staff, very comfortable beds, cheap parking, good towelsMinuses: noise noise noise. Sloppy upkeepMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r4091885-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>4091885</t>
+  </si>
+  <si>
+    <t>11/06/2005</t>
+  </si>
+  <si>
+    <t>More than an Inn</t>
+  </si>
+  <si>
+    <t>I stayed at the inn at Cherry Creek November of 2005. I read a couple of mediocre reviews which got me nervous but when i got there, i was happy with what i booked. 
+THE ROOM: I booked a deluxe room. the size of the room was decent. No sofa, only a comfy chair, plus a desk and another chair. there is plenty of room for storage. a standalone closet and a dresser. the decor is contemporary. We had an LCD flat panel TV above a fireplace that works beautifully. The room was very clean and very new. No need for any kind of update since the palce is less than a year old. I believe it's a 3 star hotel because it doesn't have a large lobby. the room can be considered more than 3 stars based on what i see from 4 star hotels nowadays.
+THE BATHROOM: The Bathroom consists of a large bathtub and a toilet. The sink is right out the bathroom door which allows for multitasking if more than one person is occupying the room.  
+THE AREA: The area is very nice and clean and hip. it's an upscale area with lots of restaurants, coffee shops, lounges and shopping galore from clothes to home stuff. The area surrounding the hotel is self sufficient and the hotel is located in the heart of it. No need for a car. beautiful walk. I saw alot of trendy...I stayed at the inn at Cherry Creek November of 2005. I read a couple of mediocre reviews which got me nervous but when i got there, i was happy with what i booked. THE ROOM: I booked a deluxe room. the size of the room was decent. No sofa, only a comfy chair, plus a desk and another chair. there is plenty of room for storage. a standalone closet and a dresser. the decor is contemporary. We had an LCD flat panel TV above a fireplace that works beautifully. The room was very clean and very new. No need for any kind of update since the palce is less than a year old. I believe it's a 3 star hotel because it doesn't have a large lobby. the room can be considered more than 3 stars based on what i see from 4 star hotels nowadays.THE BATHROOM: The Bathroom consists of a large bathtub and a toilet. The sink is right out the bathroom door which allows for multitasking if more than one person is occupying the room.  THE AREA: The area is very nice and clean and hip. it's an upscale area with lots of restaurants, coffee shops, lounges and shopping galore from clothes to home stuff. The area surrounding the hotel is self sufficient and the hotel is located in the heart of it. No need for a car. beautiful walk. I saw alot of trendy palces that can compete with the trendiest places i've seen. When I say trendy, i mean classy trendy. CONCLUSION: In a nutshell, the hotel is a very good choice all around compared to what you'd pay for the JW marriott that is half a block away. The staff is very friendly and genuinely nice. No fakeness nor intimidation. The hotel offers parking for $10 a day. Check for deals that may include breakfast and parking. I haven't tried their food because the area offers alot but i saw lots of local people coming in for food only.P.S. I gave the hotel 4 out of 5 only because a 5 out of 5 should be used for really excellent places.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the inn at Cherry Creek November of 2005. I read a couple of mediocre reviews which got me nervous but when i got there, i was happy with what i booked. 
+THE ROOM: I booked a deluxe room. the size of the room was decent. No sofa, only a comfy chair, plus a desk and another chair. there is plenty of room for storage. a standalone closet and a dresser. the decor is contemporary. We had an LCD flat panel TV above a fireplace that works beautifully. The room was very clean and very new. No need for any kind of update since the palce is less than a year old. I believe it's a 3 star hotel because it doesn't have a large lobby. the room can be considered more than 3 stars based on what i see from 4 star hotels nowadays.
+THE BATHROOM: The Bathroom consists of a large bathtub and a toilet. The sink is right out the bathroom door which allows for multitasking if more than one person is occupying the room.  
+THE AREA: The area is very nice and clean and hip. it's an upscale area with lots of restaurants, coffee shops, lounges and shopping galore from clothes to home stuff. The area surrounding the hotel is self sufficient and the hotel is located in the heart of it. No need for a car. beautiful walk. I saw alot of trendy...I stayed at the inn at Cherry Creek November of 2005. I read a couple of mediocre reviews which got me nervous but when i got there, i was happy with what i booked. THE ROOM: I booked a deluxe room. the size of the room was decent. No sofa, only a comfy chair, plus a desk and another chair. there is plenty of room for storage. a standalone closet and a dresser. the decor is contemporary. We had an LCD flat panel TV above a fireplace that works beautifully. The room was very clean and very new. No need for any kind of update since the palce is less than a year old. I believe it's a 3 star hotel because it doesn't have a large lobby. the room can be considered more than 3 stars based on what i see from 4 star hotels nowadays.THE BATHROOM: The Bathroom consists of a large bathtub and a toilet. The sink is right out the bathroom door which allows for multitasking if more than one person is occupying the room.  THE AREA: The area is very nice and clean and hip. it's an upscale area with lots of restaurants, coffee shops, lounges and shopping galore from clothes to home stuff. The area surrounding the hotel is self sufficient and the hotel is located in the heart of it. No need for a car. beautiful walk. I saw alot of trendy palces that can compete with the trendiest places i've seen. When I say trendy, i mean classy trendy. CONCLUSION: In a nutshell, the hotel is a very good choice all around compared to what you'd pay for the JW marriott that is half a block away. The staff is very friendly and genuinely nice. No fakeness nor intimidation. The hotel offers parking for $10 a day. Check for deals that may include breakfast and parking. I haven't tried their food because the area offers alot but i saw lots of local people coming in for food only.P.S. I gave the hotel 4 out of 5 only because a 5 out of 5 should be used for really excellent places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r4052713-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>4052713</t>
+  </si>
+  <si>
+    <t>10/24/2005</t>
+  </si>
+  <si>
+    <t>Get a clue about customer service</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights with a friend when we attended a conference down the street at the JW Marriott. We were here on a Saturday and Sunday nights.
+The rooms were clean and modern and comfortable, but pretty basic. 
+There was no fridge but a few items on the bathroom counter as an "honor bar." It included a couple sodas, waters, chips and candy. Everything was $1, very reasonable. However they didn't restock it after our first night.
+The front desk staff was friendly, but pretty unresponsive when we told them about the problems we had. We were given a letter when we arrived that the power would be out around noon on Sunday for 30 min and again at 5 pm for 60-90 min. We were at the conference all day and went for dinner afterwards and got back about 7 pm. The power was still out and they said if we went to the movies they would pay for our tickets. They were supposed to have free wine and appetizers but we didn't see it (we didn't ask though). We wanted to watch a show on TV so we went to our room (instead of a movie). My fiend took a shower but said there was no hot water. The shocking thing was the towels were actually bath mats! That was what they had restocked the towels with.
+The power went back on at 8:10. We...I stayed here for 2 nights with a friend when we attended a conference down the street at the JW Marriott. We were here on a Saturday and Sunday nights.The rooms were clean and modern and comfortable, but pretty basic. There was no fridge but a few items on the bathroom counter as an "honor bar." It included a couple sodas, waters, chips and candy. Everything was $1, very reasonable. However they didn't restock it after our first night.The front desk staff was friendly, but pretty unresponsive when we told them about the problems we had. We were given a letter when we arrived that the power would be out around noon on Sunday for 30 min and again at 5 pm for 60-90 min. We were at the conference all day and went for dinner afterwards and got back about 7 pm. The power was still out and they said if we went to the movies they would pay for our tickets. They were supposed to have free wine and appetizers but we didn't see it (we didn't ask though). We wanted to watch a show on TV so we went to our room (instead of a movie). My fiend took a shower but said there was no hot water. The shocking thing was the towels were actually bath mats! That was what they had restocked the towels with.The power went back on at 8:10. We called for a wake-up call at 6:30. It never came. We checked out and told them about the towels not being restocked and the honor bar not being restocked and they "thanked us for our feedback" and when we told them about no wake up call they said "Oh, there was a computer glitch."That's it? A computer glitch? No apology there.We didn't really feel like they took our feedback seriously, or at least seriously enough to try to do anything to make it up to us.Anybody can provide nice rooms. But good customer service (and fresh towels - not bath mats) is what makes me return and I won't be returning to the Cherry Creek Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2005</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights with a friend when we attended a conference down the street at the JW Marriott. We were here on a Saturday and Sunday nights.
+The rooms were clean and modern and comfortable, but pretty basic. 
+There was no fridge but a few items on the bathroom counter as an "honor bar." It included a couple sodas, waters, chips and candy. Everything was $1, very reasonable. However they didn't restock it after our first night.
+The front desk staff was friendly, but pretty unresponsive when we told them about the problems we had. We were given a letter when we arrived that the power would be out around noon on Sunday for 30 min and again at 5 pm for 60-90 min. We were at the conference all day and went for dinner afterwards and got back about 7 pm. The power was still out and they said if we went to the movies they would pay for our tickets. They were supposed to have free wine and appetizers but we didn't see it (we didn't ask though). We wanted to watch a show on TV so we went to our room (instead of a movie). My fiend took a shower but said there was no hot water. The shocking thing was the towels were actually bath mats! That was what they had restocked the towels with.
+The power went back on at 8:10. We...I stayed here for 2 nights with a friend when we attended a conference down the street at the JW Marriott. We were here on a Saturday and Sunday nights.The rooms were clean and modern and comfortable, but pretty basic. There was no fridge but a few items on the bathroom counter as an "honor bar." It included a couple sodas, waters, chips and candy. Everything was $1, very reasonable. However they didn't restock it after our first night.The front desk staff was friendly, but pretty unresponsive when we told them about the problems we had. We were given a letter when we arrived that the power would be out around noon on Sunday for 30 min and again at 5 pm for 60-90 min. We were at the conference all day and went for dinner afterwards and got back about 7 pm. The power was still out and they said if we went to the movies they would pay for our tickets. They were supposed to have free wine and appetizers but we didn't see it (we didn't ask though). We wanted to watch a show on TV so we went to our room (instead of a movie). My fiend took a shower but said there was no hot water. The shocking thing was the towels were actually bath mats! That was what they had restocked the towels with.The power went back on at 8:10. We called for a wake-up call at 6:30. It never came. We checked out and told them about the towels not being restocked and the honor bar not being restocked and they "thanked us for our feedback" and when we told them about no wake up call they said "Oh, there was a computer glitch."That's it? A computer glitch? No apology there.We didn't really feel like they took our feedback seriously, or at least seriously enough to try to do anything to make it up to us.Anybody can provide nice rooms. But good customer service (and fresh towels - not bath mats) is what makes me return and I won't be returning to the Cherry Creek Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33388-d530656-r3936805-Inn_at_Cherry_Creek-Denver_Colorado.html</t>
+  </si>
+  <si>
+    <t>3936805</t>
+  </si>
+  <si>
+    <t>09/23/2005</t>
+  </si>
+  <si>
+    <t>Nice except for excessive noise on weekend nights</t>
+  </si>
+  <si>
+    <t>We were really excited to stay at the Inn at Cherry Creek during a recent visit to Denver.The good: Great location.  It's in Cherry Creek North and there is lots of shopping and excellent food within walking distance.  We would recommend the nearby Cucina Colore for excellent Italian food.  The front desk was very friendly and welcoming upon our arrival.  The furnishing are modern.  We stayed in a "deluxe" room with flat screen plasma TV and gas fireplace.The bad:  Noise.  On both Friday and Saturday night, the hotel had live entertainment on the 2nd floor and the outdoor patio.  This was VERY loud until midnight on both nights.  It's not my idea of a nice hotel stay to have loud music and people talking/cherring while I'm trying to relax and maybe watch a little TV.  If you into staying out until 2:00 in the morning and needing a place to stay, this hotel may be perfect for you.  Otherwise, I'd suggest staying away on weekends if you enjoy peace and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were really excited to stay at the Inn at Cherry Creek during a recent visit to Denver.The good: Great location.  It's in Cherry Creek North and there is lots of shopping and excellent food within walking distance.  We would recommend the nearby Cucina Colore for excellent Italian food.  The front desk was very friendly and welcoming upon our arrival.  The furnishing are modern.  We stayed in a "deluxe" room with flat screen plasma TV and gas fireplace.The bad:  Noise.  On both Friday and Saturday night, the hotel had live entertainment on the 2nd floor and the outdoor patio.  This was VERY loud until midnight on both nights.  It's not my idea of a nice hotel stay to have loud music and people talking/cherring while I'm trying to relax and maybe watch a little TV.  If you into staying out until 2:00 in the morning and needing a place to stay, this hotel may be perfect for you.  Otherwise, I'd suggest staying away on weekends if you enjoy peace and quiet.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2574,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2606,6392 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>197</v>
+      </c>
+      <c r="J24" t="s">
+        <v>198</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>202</v>
+      </c>
+      <c r="X24" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>206</v>
+      </c>
+      <c r="J25" t="s">
+        <v>207</v>
+      </c>
+      <c r="K25" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>201</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>202</v>
+      </c>
+      <c r="X25" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>212</v>
+      </c>
+      <c r="J26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>216</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>221</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+      <c r="K27" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" t="s">
+        <v>224</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J28" t="s">
+        <v>231</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>226</v>
+      </c>
+      <c r="X28" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>241</v>
+      </c>
+      <c r="O29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>242</v>
+      </c>
+      <c r="X29" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>255</v>
+      </c>
+      <c r="J31" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" t="s">
+        <v>258</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>259</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>106</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>286</v>
+      </c>
+      <c r="X35" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>324</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+      <c r="J41" t="s">
+        <v>327</v>
+      </c>
+      <c r="K41" t="s">
+        <v>328</v>
+      </c>
+      <c r="L41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>340</v>
+      </c>
+      <c r="J43" t="s">
+        <v>341</v>
+      </c>
+      <c r="K43" t="s">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s">
+        <v>343</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>330</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>337</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" t="s">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s">
+        <v>355</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>362</v>
+      </c>
+      <c r="J47" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" t="s">
+        <v>364</v>
+      </c>
+      <c r="L47" t="s">
+        <v>365</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>373</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
+        <v>379</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" t="s">
+        <v>106</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>386</v>
+      </c>
+      <c r="O50" t="s">
+        <v>99</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>387</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>388</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+      <c r="K51" t="s">
+        <v>390</v>
+      </c>
+      <c r="L51" t="s">
+        <v>391</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>393</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>394</v>
+      </c>
+      <c r="J52" t="s">
+        <v>395</v>
+      </c>
+      <c r="K52" t="s">
+        <v>396</v>
+      </c>
+      <c r="L52" t="s">
+        <v>397</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>398</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>401</v>
+      </c>
+      <c r="J53" t="s">
+        <v>402</v>
+      </c>
+      <c r="K53" t="s">
+        <v>403</v>
+      </c>
+      <c r="L53" t="s">
+        <v>404</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>406</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>407</v>
+      </c>
+      <c r="J54" t="s">
+        <v>408</v>
+      </c>
+      <c r="K54" t="s">
+        <v>409</v>
+      </c>
+      <c r="L54" t="s">
+        <v>410</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>411</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>412</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>413</v>
+      </c>
+      <c r="J55" t="s">
+        <v>414</v>
+      </c>
+      <c r="K55" t="s">
+        <v>415</v>
+      </c>
+      <c r="L55" t="s">
+        <v>416</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>417</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>418</v>
+      </c>
+      <c r="J56" t="s">
+        <v>419</v>
+      </c>
+      <c r="K56" t="s">
+        <v>420</v>
+      </c>
+      <c r="L56" t="s">
+        <v>421</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>423</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>424</v>
+      </c>
+      <c r="J57" t="s">
+        <v>425</v>
+      </c>
+      <c r="K57" t="s">
+        <v>426</v>
+      </c>
+      <c r="L57" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>422</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>429</v>
+      </c>
+      <c r="J58" t="s">
+        <v>430</v>
+      </c>
+      <c r="K58" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" t="s">
+        <v>432</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>422</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>434</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>435</v>
+      </c>
+      <c r="J59" t="s">
+        <v>436</v>
+      </c>
+      <c r="K59" t="s">
+        <v>437</v>
+      </c>
+      <c r="L59" t="s">
+        <v>438</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>439</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>440</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>441</v>
+      </c>
+      <c r="J60" t="s">
+        <v>442</v>
+      </c>
+      <c r="K60" t="s">
+        <v>443</v>
+      </c>
+      <c r="L60" t="s">
+        <v>444</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>445</v>
+      </c>
+      <c r="O60" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>448</v>
+      </c>
+      <c r="J61" t="s">
+        <v>449</v>
+      </c>
+      <c r="K61" t="s">
+        <v>450</v>
+      </c>
+      <c r="L61" t="s">
+        <v>451</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>445</v>
+      </c>
+      <c r="O61" t="s">
+        <v>106</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>453</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>454</v>
+      </c>
+      <c r="J62" t="s">
+        <v>455</v>
+      </c>
+      <c r="K62" t="s">
+        <v>456</v>
+      </c>
+      <c r="L62" t="s">
+        <v>457</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>458</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>460</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>461</v>
+      </c>
+      <c r="J63" t="s">
+        <v>462</v>
+      </c>
+      <c r="K63" t="s">
+        <v>463</v>
+      </c>
+      <c r="L63" t="s">
+        <v>464</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>465</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>466</v>
+      </c>
+      <c r="J64" t="s">
+        <v>467</v>
+      </c>
+      <c r="K64" t="s">
+        <v>468</v>
+      </c>
+      <c r="L64" t="s">
+        <v>469</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>458</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" t="s">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s">
+        <v>475</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>476</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>478</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>479</v>
+      </c>
+      <c r="J66" t="s">
+        <v>480</v>
+      </c>
+      <c r="K66" t="s">
+        <v>481</v>
+      </c>
+      <c r="L66" t="s">
+        <v>482</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>483</v>
+      </c>
+      <c r="O66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>485</v>
+      </c>
+      <c r="J67" t="s">
+        <v>486</v>
+      </c>
+      <c r="K67" t="s">
+        <v>487</v>
+      </c>
+      <c r="L67" t="s">
+        <v>488</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>458</v>
+      </c>
+      <c r="O67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>490</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>491</v>
+      </c>
+      <c r="J68" t="s">
+        <v>492</v>
+      </c>
+      <c r="K68" t="s">
+        <v>493</v>
+      </c>
+      <c r="L68" t="s">
+        <v>494</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>495</v>
+      </c>
+      <c r="O68" t="s">
+        <v>106</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>497</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>498</v>
+      </c>
+      <c r="J69" t="s">
+        <v>499</v>
+      </c>
+      <c r="K69" t="s">
+        <v>500</v>
+      </c>
+      <c r="L69" t="s">
+        <v>501</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>476</v>
+      </c>
+      <c r="O69" t="s">
+        <v>106</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>503</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>504</v>
+      </c>
+      <c r="J70" t="s">
+        <v>505</v>
+      </c>
+      <c r="K70" t="s">
+        <v>506</v>
+      </c>
+      <c r="L70" t="s">
+        <v>507</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>476</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>509</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>510</v>
+      </c>
+      <c r="J71" t="s">
+        <v>511</v>
+      </c>
+      <c r="K71" t="s">
+        <v>512</v>
+      </c>
+      <c r="L71" t="s">
+        <v>513</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>514</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>516</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>517</v>
+      </c>
+      <c r="J72" t="s">
+        <v>518</v>
+      </c>
+      <c r="K72" t="s">
+        <v>519</v>
+      </c>
+      <c r="L72" t="s">
+        <v>520</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>521</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>523</v>
+      </c>
+      <c r="J73" t="s">
+        <v>524</v>
+      </c>
+      <c r="K73" t="s">
+        <v>525</v>
+      </c>
+      <c r="L73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>514</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>528</v>
+      </c>
+      <c r="J74" t="s">
+        <v>529</v>
+      </c>
+      <c r="K74" t="s">
+        <v>530</v>
+      </c>
+      <c r="L74" t="s">
+        <v>531</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>532</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>534</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>535</v>
+      </c>
+      <c r="J75" t="s">
+        <v>536</v>
+      </c>
+      <c r="K75" t="s">
+        <v>537</v>
+      </c>
+      <c r="L75" t="s">
+        <v>538</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>532</v>
+      </c>
+      <c r="O75" t="s">
+        <v>106</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>539</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>540</v>
+      </c>
+      <c r="J76" t="s">
+        <v>541</v>
+      </c>
+      <c r="K76" t="s">
+        <v>542</v>
+      </c>
+      <c r="L76" t="s">
+        <v>543</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>521</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>544</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>545</v>
+      </c>
+      <c r="J77" t="s">
+        <v>546</v>
+      </c>
+      <c r="K77" t="s">
+        <v>547</v>
+      </c>
+      <c r="L77" t="s">
+        <v>548</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>549</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>550</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>551</v>
+      </c>
+      <c r="J78" t="s">
+        <v>552</v>
+      </c>
+      <c r="K78" t="s">
+        <v>553</v>
+      </c>
+      <c r="L78" t="s">
+        <v>554</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>555</v>
+      </c>
+      <c r="O78" t="s">
+        <v>106</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>556</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>557</v>
+      </c>
+      <c r="J79" t="s">
+        <v>558</v>
+      </c>
+      <c r="K79" t="s">
+        <v>559</v>
+      </c>
+      <c r="L79" t="s">
+        <v>560</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>561</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>562</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>563</v>
+      </c>
+      <c r="J80" t="s">
+        <v>564</v>
+      </c>
+      <c r="K80" t="s">
+        <v>565</v>
+      </c>
+      <c r="L80" t="s">
+        <v>566</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>567</v>
+      </c>
+      <c r="O80" t="s">
+        <v>106</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>569</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>570</v>
+      </c>
+      <c r="J81" t="s">
+        <v>571</v>
+      </c>
+      <c r="K81" t="s">
+        <v>572</v>
+      </c>
+      <c r="L81" t="s">
+        <v>573</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>574</v>
+      </c>
+      <c r="O81" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>575</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>576</v>
+      </c>
+      <c r="J82" t="s">
+        <v>577</v>
+      </c>
+      <c r="K82" t="s">
+        <v>578</v>
+      </c>
+      <c r="L82" t="s">
+        <v>579</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>574</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>580</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>581</v>
+      </c>
+      <c r="J83" t="s">
+        <v>582</v>
+      </c>
+      <c r="K83" t="s">
+        <v>583</v>
+      </c>
+      <c r="L83" t="s">
+        <v>584</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>585</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>586</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>587</v>
+      </c>
+      <c r="J84" t="s">
+        <v>588</v>
+      </c>
+      <c r="K84" t="s">
+        <v>589</v>
+      </c>
+      <c r="L84" t="s">
+        <v>590</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>591</v>
+      </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>593</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>594</v>
+      </c>
+      <c r="J85" t="s">
+        <v>595</v>
+      </c>
+      <c r="K85" t="s">
+        <v>596</v>
+      </c>
+      <c r="L85" t="s">
+        <v>597</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>598</v>
+      </c>
+      <c r="O85" t="s">
+        <v>106</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>601</v>
+      </c>
+      <c r="J86" t="s">
+        <v>602</v>
+      </c>
+      <c r="K86" t="s">
+        <v>603</v>
+      </c>
+      <c r="L86" t="s">
+        <v>604</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>605</v>
+      </c>
+      <c r="O86" t="s">
+        <v>106</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>606</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>607</v>
+      </c>
+      <c r="J87" t="s">
+        <v>608</v>
+      </c>
+      <c r="K87" t="s">
+        <v>609</v>
+      </c>
+      <c r="L87" t="s">
+        <v>610</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>611</v>
+      </c>
+      <c r="O87" t="s">
+        <v>106</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>612</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>613</v>
+      </c>
+      <c r="J88" t="s">
+        <v>614</v>
+      </c>
+      <c r="K88" t="s">
+        <v>615</v>
+      </c>
+      <c r="L88" t="s">
+        <v>616</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>617</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>619</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>620</v>
+      </c>
+      <c r="J89" t="s">
+        <v>621</v>
+      </c>
+      <c r="K89" t="s">
+        <v>622</v>
+      </c>
+      <c r="L89" t="s">
+        <v>623</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>624</v>
+      </c>
+      <c r="O89" t="s">
+        <v>106</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>625</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>626</v>
+      </c>
+      <c r="J90" t="s">
+        <v>627</v>
+      </c>
+      <c r="K90" t="s">
+        <v>628</v>
+      </c>
+      <c r="L90" t="s">
+        <v>629</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>630</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>632</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>633</v>
+      </c>
+      <c r="J91" t="s">
+        <v>634</v>
+      </c>
+      <c r="K91" t="s">
+        <v>635</v>
+      </c>
+      <c r="L91" t="s">
+        <v>636</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>637</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>638</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>639</v>
+      </c>
+      <c r="J92" t="s">
+        <v>640</v>
+      </c>
+      <c r="K92" t="s">
+        <v>641</v>
+      </c>
+      <c r="L92" t="s">
+        <v>642</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>637</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>643</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>644</v>
+      </c>
+      <c r="J93" t="s">
+        <v>645</v>
+      </c>
+      <c r="K93" t="s">
+        <v>646</v>
+      </c>
+      <c r="L93" t="s">
+        <v>647</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>648</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>649</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>650</v>
+      </c>
+      <c r="J94" t="s">
+        <v>651</v>
+      </c>
+      <c r="K94" t="s">
+        <v>652</v>
+      </c>
+      <c r="L94" t="s">
+        <v>653</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>654</v>
+      </c>
+      <c r="O94" t="s">
+        <v>69</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>655</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>656</v>
+      </c>
+      <c r="J95" t="s">
+        <v>657</v>
+      </c>
+      <c r="K95" t="s">
+        <v>658</v>
+      </c>
+      <c r="L95" t="s">
+        <v>659</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>660</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>662</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>663</v>
+      </c>
+      <c r="J96" t="s">
+        <v>664</v>
+      </c>
+      <c r="K96" t="s">
+        <v>665</v>
+      </c>
+      <c r="L96" t="s">
+        <v>666</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>668</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>669</v>
+      </c>
+      <c r="J97" t="s">
+        <v>670</v>
+      </c>
+      <c r="K97" t="s">
+        <v>671</v>
+      </c>
+      <c r="L97" t="s">
+        <v>672</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>674</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>675</v>
+      </c>
+      <c r="J98" t="s">
+        <v>676</v>
+      </c>
+      <c r="K98" t="s">
+        <v>677</v>
+      </c>
+      <c r="L98" t="s">
+        <v>678</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>680</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>681</v>
+      </c>
+      <c r="J99" t="s">
+        <v>682</v>
+      </c>
+      <c r="K99" t="s">
+        <v>683</v>
+      </c>
+      <c r="L99" t="s">
+        <v>684</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>685</v>
+      </c>
+      <c r="O99" t="s">
+        <v>106</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53171</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>687</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>688</v>
+      </c>
+      <c r="J100" t="s">
+        <v>689</v>
+      </c>
+      <c r="K100" t="s">
+        <v>690</v>
+      </c>
+      <c r="L100" t="s">
+        <v>691</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
